--- a/Data/LCL Pricing Navexel2 2.xlsx
+++ b/Data/LCL Pricing Navexel2 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Navexcel\LCL Pricing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEF3297-F2CE-4E09-AD3D-C1FEE7E6EBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E003B663-6F62-406F-9EEA-7348E0E86459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83FA37E5-C1F9-49A3-A48E-5FC3B7FA6C2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{83FA37E5-C1F9-49A3-A48E-5FC3B7FA6C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="OF Direct" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22013" uniqueCount="3287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22153" uniqueCount="3305">
   <si>
     <t>Agent</t>
   </si>
@@ -10149,6 +10149,60 @@
   </si>
   <si>
     <t>Reworking Port</t>
+  </si>
+  <si>
+    <t>w/m</t>
+  </si>
+  <si>
+    <t>hbl</t>
+  </si>
+  <si>
+    <t>110w/m</t>
+  </si>
+  <si>
+    <t>35w/m</t>
+  </si>
+  <si>
+    <t>75hbl</t>
+  </si>
+  <si>
+    <t>10hbl</t>
+  </si>
+  <si>
+    <t>45.5hbl</t>
+  </si>
+  <si>
+    <t>25hbl</t>
+  </si>
+  <si>
+    <t>25w/m</t>
+  </si>
+  <si>
+    <t>2.5w/m</t>
+  </si>
+  <si>
+    <t>9.5w/m</t>
+  </si>
+  <si>
+    <t>5w/m</t>
+  </si>
+  <si>
+    <t>18.5w/m</t>
+  </si>
+  <si>
+    <t>30hbl</t>
+  </si>
+  <si>
+    <t>40hbl</t>
+  </si>
+  <si>
+    <t>30w/m</t>
+  </si>
+  <si>
+    <t>50w/m</t>
+  </si>
+  <si>
+    <t>50hbl</t>
   </si>
 </sst>
 </file>
@@ -10285,7 +10339,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10297,6 +10351,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel.Chart" xfId="2" xr:uid="{1EDF7583-85F1-4C8C-8AE7-8A77BD54DE6E}"/>
@@ -10764,7 +10822,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -45880,8 +45938,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J1641"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -62108,7 +62166,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="561" spans="1:9">
+    <row r="561" spans="1:10">
       <c r="A561" t="s">
         <v>1412</v>
       </c>
@@ -62137,7 +62195,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" spans="1:10">
       <c r="A562" t="s">
         <v>1412</v>
       </c>
@@ -62166,7 +62224,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="563" spans="1:9">
+    <row r="563" spans="1:10">
       <c r="A563" t="s">
         <v>1412</v>
       </c>
@@ -62195,7 +62253,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="564" spans="1:9">
+    <row r="564" spans="1:10">
       <c r="A564" t="s">
         <v>1412</v>
       </c>
@@ -62224,7 +62282,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="565" spans="1:9">
+    <row r="565" spans="1:10">
       <c r="A565" t="s">
         <v>49</v>
       </c>
@@ -62246,14 +62304,17 @@
       <c r="G565" t="s">
         <v>1108</v>
       </c>
-      <c r="H565">
-        <v>110</v>
+      <c r="H565" t="s">
+        <v>3289</v>
       </c>
       <c r="I565" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="566" spans="1:9">
+      <c r="J565" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10">
       <c r="A566" t="s">
         <v>49</v>
       </c>
@@ -62275,14 +62336,17 @@
       <c r="G566" t="s">
         <v>1108</v>
       </c>
-      <c r="H566">
-        <v>35</v>
+      <c r="H566" t="s">
+        <v>3290</v>
       </c>
       <c r="I566" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="567" spans="1:9">
+      <c r="J566" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10">
       <c r="A567" t="s">
         <v>49</v>
       </c>
@@ -62304,14 +62368,17 @@
       <c r="G567" t="s">
         <v>1108</v>
       </c>
-      <c r="H567">
-        <v>75</v>
+      <c r="H567" t="s">
+        <v>3291</v>
       </c>
       <c r="I567" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="568" spans="1:9">
+      <c r="J567" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10">
       <c r="A568" t="s">
         <v>49</v>
       </c>
@@ -62333,14 +62400,17 @@
       <c r="G568" t="s">
         <v>1108</v>
       </c>
-      <c r="H568">
-        <v>10</v>
+      <c r="H568" t="s">
+        <v>3292</v>
       </c>
       <c r="I568" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="569" spans="1:9">
+      <c r="J568" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10">
       <c r="A569" t="s">
         <v>49</v>
       </c>
@@ -62362,14 +62432,17 @@
       <c r="G569" t="s">
         <v>1108</v>
       </c>
-      <c r="H569">
-        <v>45.5</v>
+      <c r="H569" t="s">
+        <v>3293</v>
       </c>
       <c r="I569" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="570" spans="1:9">
+      <c r="J569" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10">
       <c r="A570" t="s">
         <v>49</v>
       </c>
@@ -62391,14 +62464,17 @@
       <c r="G570" t="s">
         <v>1108</v>
       </c>
-      <c r="H570">
-        <v>25</v>
+      <c r="H570" t="s">
+        <v>3294</v>
       </c>
       <c r="I570" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="571" spans="1:9">
+      <c r="J570" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10">
       <c r="A571" t="s">
         <v>49</v>
       </c>
@@ -62420,14 +62496,17 @@
       <c r="G571" t="s">
         <v>1108</v>
       </c>
-      <c r="H571">
-        <v>25</v>
+      <c r="H571" t="s">
+        <v>3295</v>
       </c>
       <c r="I571" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="572" spans="1:9">
+      <c r="J571" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10">
       <c r="A572" t="s">
         <v>49</v>
       </c>
@@ -62449,14 +62528,17 @@
       <c r="G572" t="s">
         <v>1108</v>
       </c>
-      <c r="H572">
-        <v>2.5</v>
+      <c r="H572" t="s">
+        <v>3296</v>
       </c>
       <c r="I572" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="573" spans="1:9">
+      <c r="J572" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10">
       <c r="A573" t="s">
         <v>49</v>
       </c>
@@ -62478,14 +62560,17 @@
       <c r="G573" t="s">
         <v>1108</v>
       </c>
-      <c r="H573">
-        <v>9.5</v>
+      <c r="H573" t="s">
+        <v>3297</v>
       </c>
       <c r="I573" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="574" spans="1:9">
+      <c r="J573" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10">
       <c r="A574" t="s">
         <v>49</v>
       </c>
@@ -62507,14 +62592,17 @@
       <c r="G574" t="s">
         <v>1108</v>
       </c>
-      <c r="H574">
-        <v>5</v>
+      <c r="H574" t="s">
+        <v>3298</v>
       </c>
       <c r="I574" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="575" spans="1:9">
+      <c r="J574" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10">
       <c r="A575" t="s">
         <v>49</v>
       </c>
@@ -62536,14 +62624,17 @@
       <c r="G575" t="s">
         <v>1108</v>
       </c>
-      <c r="H575">
-        <v>18.5</v>
+      <c r="H575" t="s">
+        <v>3299</v>
       </c>
       <c r="I575" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="576" spans="1:9">
+      <c r="J575" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10">
       <c r="A576" t="s">
         <v>49</v>
       </c>
@@ -62565,14 +62656,17 @@
       <c r="G576" t="s">
         <v>1108</v>
       </c>
-      <c r="H576">
-        <v>30</v>
+      <c r="H576" t="s">
+        <v>3300</v>
       </c>
       <c r="I576" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="577" spans="1:9">
+      <c r="J576" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10">
       <c r="A577" t="s">
         <v>49</v>
       </c>
@@ -62594,14 +62688,17 @@
       <c r="G577" t="s">
         <v>1108</v>
       </c>
-      <c r="H577">
-        <v>40</v>
+      <c r="H577" t="s">
+        <v>3301</v>
       </c>
       <c r="I577" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="578" spans="1:9">
+      <c r="J577" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10">
       <c r="A578" t="s">
         <v>49</v>
       </c>
@@ -62623,14 +62720,17 @@
       <c r="G578" t="s">
         <v>14</v>
       </c>
-      <c r="H578">
-        <v>25</v>
+      <c r="H578" t="s">
+        <v>3295</v>
       </c>
       <c r="I578" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="579" spans="1:9">
+      <c r="J578" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10">
       <c r="A579" t="s">
         <v>49</v>
       </c>
@@ -62652,14 +62752,17 @@
       <c r="G579" t="s">
         <v>1108</v>
       </c>
-      <c r="H579">
-        <v>110</v>
+      <c r="H579" t="s">
+        <v>3289</v>
       </c>
       <c r="I579" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="580" spans="1:9">
+      <c r="J579" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10">
       <c r="A580" t="s">
         <v>49</v>
       </c>
@@ -62681,14 +62784,17 @@
       <c r="G580" t="s">
         <v>1108</v>
       </c>
-      <c r="H580">
-        <v>35</v>
+      <c r="H580" t="s">
+        <v>3290</v>
       </c>
       <c r="I580" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="581" spans="1:9">
+      <c r="J580" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10">
       <c r="A581" t="s">
         <v>49</v>
       </c>
@@ -62710,14 +62816,17 @@
       <c r="G581" t="s">
         <v>1108</v>
       </c>
-      <c r="H581">
-        <v>75</v>
+      <c r="H581" t="s">
+        <v>3291</v>
       </c>
       <c r="I581" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="582" spans="1:9">
+      <c r="J581" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10">
       <c r="A582" t="s">
         <v>49</v>
       </c>
@@ -62739,14 +62848,17 @@
       <c r="G582" t="s">
         <v>1108</v>
       </c>
-      <c r="H582">
-        <v>10</v>
+      <c r="H582" t="s">
+        <v>3292</v>
       </c>
       <c r="I582" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="583" spans="1:9">
+      <c r="J582" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10">
       <c r="A583" t="s">
         <v>49</v>
       </c>
@@ -62768,14 +62880,17 @@
       <c r="G583" t="s">
         <v>1108</v>
       </c>
-      <c r="H583">
-        <v>45.5</v>
+      <c r="H583" t="s">
+        <v>3293</v>
       </c>
       <c r="I583" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="584" spans="1:9">
+      <c r="J583" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10">
       <c r="A584" t="s">
         <v>49</v>
       </c>
@@ -62797,14 +62912,17 @@
       <c r="G584" t="s">
         <v>1108</v>
       </c>
-      <c r="H584">
-        <v>25</v>
+      <c r="H584" t="s">
+        <v>3294</v>
       </c>
       <c r="I584" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="585" spans="1:9">
+      <c r="J584" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10">
       <c r="A585" t="s">
         <v>49</v>
       </c>
@@ -62826,14 +62944,17 @@
       <c r="G585" t="s">
         <v>1108</v>
       </c>
-      <c r="H585">
-        <v>25</v>
+      <c r="H585" t="s">
+        <v>3295</v>
       </c>
       <c r="I585" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="586" spans="1:9">
+      <c r="J585" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10">
       <c r="A586" t="s">
         <v>49</v>
       </c>
@@ -62855,14 +62976,17 @@
       <c r="G586" t="s">
         <v>1108</v>
       </c>
-      <c r="H586">
-        <v>9.5</v>
+      <c r="H586" t="s">
+        <v>3297</v>
       </c>
       <c r="I586" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="587" spans="1:9">
+      <c r="J586" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10">
       <c r="A587" t="s">
         <v>49</v>
       </c>
@@ -62884,14 +63008,17 @@
       <c r="G587" t="s">
         <v>1108</v>
       </c>
-      <c r="H587">
-        <v>5</v>
+      <c r="H587" t="s">
+        <v>3298</v>
       </c>
       <c r="I587" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="588" spans="1:9">
+      <c r="J587" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10">
       <c r="A588" t="s">
         <v>49</v>
       </c>
@@ -62913,14 +63040,17 @@
       <c r="G588" t="s">
         <v>1108</v>
       </c>
-      <c r="H588">
-        <v>18.5</v>
+      <c r="H588" t="s">
+        <v>3299</v>
       </c>
       <c r="I588" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="589" spans="1:9">
+      <c r="J588" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10">
       <c r="A589" t="s">
         <v>49</v>
       </c>
@@ -62942,14 +63072,17 @@
       <c r="G589" t="s">
         <v>1108</v>
       </c>
-      <c r="H589">
-        <v>30</v>
+      <c r="H589" t="s">
+        <v>3302</v>
       </c>
       <c r="I589" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="590" spans="1:9">
+      <c r="J589" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10">
       <c r="A590" t="s">
         <v>49</v>
       </c>
@@ -62971,14 +63104,17 @@
       <c r="G590" t="s">
         <v>1108</v>
       </c>
-      <c r="H590">
-        <v>40</v>
+      <c r="H590" t="s">
+        <v>3301</v>
       </c>
       <c r="I590" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="591" spans="1:9">
+      <c r="J590" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10">
       <c r="A591" t="s">
         <v>49</v>
       </c>
@@ -63000,14 +63136,17 @@
       <c r="G591" t="s">
         <v>14</v>
       </c>
-      <c r="H591">
-        <v>25</v>
+      <c r="H591" t="s">
+        <v>3294</v>
       </c>
       <c r="I591" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="592" spans="1:9">
+      <c r="J591" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10">
       <c r="A592" t="s">
         <v>49</v>
       </c>
@@ -63029,14 +63168,17 @@
       <c r="G592" t="s">
         <v>1108</v>
       </c>
-      <c r="H592">
-        <v>50</v>
+      <c r="H592" t="s">
+        <v>3303</v>
       </c>
       <c r="I592" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="593" spans="1:9">
+      <c r="J592" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10">
       <c r="A593" t="s">
         <v>49</v>
       </c>
@@ -63058,14 +63200,17 @@
       <c r="G593" t="s">
         <v>1108</v>
       </c>
-      <c r="H593">
-        <v>110</v>
+      <c r="H593" t="s">
+        <v>3289</v>
       </c>
       <c r="I593" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="594" spans="1:9">
+      <c r="J593" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10">
       <c r="A594" t="s">
         <v>49</v>
       </c>
@@ -63087,14 +63232,17 @@
       <c r="G594" t="s">
         <v>1108</v>
       </c>
-      <c r="H594">
-        <v>35</v>
+      <c r="H594" t="s">
+        <v>3290</v>
       </c>
       <c r="I594" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="595" spans="1:9">
+      <c r="J594" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10">
       <c r="A595" t="s">
         <v>49</v>
       </c>
@@ -63116,14 +63264,17 @@
       <c r="G595" t="s">
         <v>1108</v>
       </c>
-      <c r="H595">
-        <v>75</v>
+      <c r="H595" t="s">
+        <v>3291</v>
       </c>
       <c r="I595" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="596" spans="1:9">
+      <c r="J595" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10">
       <c r="A596" t="s">
         <v>49</v>
       </c>
@@ -63145,14 +63296,17 @@
       <c r="G596" t="s">
         <v>1108</v>
       </c>
-      <c r="H596">
-        <v>10</v>
+      <c r="H596" t="s">
+        <v>3292</v>
       </c>
       <c r="I596" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="597" spans="1:9">
+      <c r="J596" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10">
       <c r="A597" t="s">
         <v>49</v>
       </c>
@@ -63174,14 +63328,17 @@
       <c r="G597" t="s">
         <v>1108</v>
       </c>
-      <c r="H597">
-        <v>45.5</v>
+      <c r="H597" t="s">
+        <v>3293</v>
       </c>
       <c r="I597" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="598" spans="1:9">
+      <c r="J597" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10">
       <c r="A598" t="s">
         <v>49</v>
       </c>
@@ -63203,14 +63360,17 @@
       <c r="G598" t="s">
         <v>1108</v>
       </c>
-      <c r="H598">
-        <v>25</v>
+      <c r="H598" t="s">
+        <v>3294</v>
       </c>
       <c r="I598" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="599" spans="1:9">
+      <c r="J598" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10">
       <c r="A599" t="s">
         <v>49</v>
       </c>
@@ -63232,14 +63392,17 @@
       <c r="G599" t="s">
         <v>1108</v>
       </c>
-      <c r="H599">
-        <v>25</v>
+      <c r="H599" t="s">
+        <v>3295</v>
       </c>
       <c r="I599" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="600" spans="1:9">
+      <c r="J599" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10">
       <c r="A600" t="s">
         <v>49</v>
       </c>
@@ -63261,14 +63424,17 @@
       <c r="G600" t="s">
         <v>1108</v>
       </c>
-      <c r="H600">
-        <v>9.5</v>
+      <c r="H600" t="s">
+        <v>3297</v>
       </c>
       <c r="I600" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="601" spans="1:9">
+      <c r="J600" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10">
       <c r="A601" t="s">
         <v>49</v>
       </c>
@@ -63290,14 +63456,17 @@
       <c r="G601" t="s">
         <v>1108</v>
       </c>
-      <c r="H601">
-        <v>5</v>
+      <c r="H601" t="s">
+        <v>3298</v>
       </c>
       <c r="I601" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="602" spans="1:9">
+      <c r="J601" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10">
       <c r="A602" t="s">
         <v>49</v>
       </c>
@@ -63319,14 +63488,17 @@
       <c r="G602" t="s">
         <v>1108</v>
       </c>
-      <c r="H602">
-        <v>18.5</v>
+      <c r="H602" t="s">
+        <v>3299</v>
       </c>
       <c r="I602" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="603" spans="1:9">
+      <c r="J602" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10">
       <c r="A603" t="s">
         <v>49</v>
       </c>
@@ -63348,14 +63520,17 @@
       <c r="G603" t="s">
         <v>1108</v>
       </c>
-      <c r="H603">
-        <v>30</v>
+      <c r="H603" t="s">
+        <v>3300</v>
       </c>
       <c r="I603" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="604" spans="1:9">
+      <c r="J603" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10">
       <c r="A604" t="s">
         <v>49</v>
       </c>
@@ -63377,14 +63552,17 @@
       <c r="G604" t="s">
         <v>1108</v>
       </c>
-      <c r="H604">
-        <v>40</v>
+      <c r="H604" t="s">
+        <v>3301</v>
       </c>
       <c r="I604" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="605" spans="1:9">
+      <c r="J604" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10">
       <c r="A605" t="s">
         <v>49</v>
       </c>
@@ -63406,391 +63584,433 @@
       <c r="G605" t="s">
         <v>14</v>
       </c>
-      <c r="H605">
-        <v>25</v>
+      <c r="H605" t="s">
+        <v>3295</v>
       </c>
       <c r="I605" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="606" spans="1:9">
-      <c r="A606" t="s">
-        <v>49</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C606" t="s">
-        <v>51</v>
-      </c>
-      <c r="D606" t="s">
+      <c r="J605" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10" s="4" customFormat="1">
+      <c r="A606" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B606" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C606" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D606" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E606" t="s">
+      <c r="E606" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F606" t="s">
+      <c r="F606" s="4" t="s">
         <v>1729</v>
       </c>
-      <c r="G606" t="s">
+      <c r="G606" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="H606">
-        <v>110</v>
-      </c>
-      <c r="I606" s="1">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="607" spans="1:9">
-      <c r="A607" t="s">
-        <v>49</v>
-      </c>
-      <c r="B607" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C607" t="s">
-        <v>51</v>
-      </c>
-      <c r="D607" t="s">
+      <c r="H606" s="4" t="s">
+        <v>3289</v>
+      </c>
+      <c r="I606" s="8">
+        <v>45900</v>
+      </c>
+      <c r="J606" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" s="4" customFormat="1">
+      <c r="A607" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B607" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C607" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D607" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E607" t="s">
+      <c r="E607" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F607" t="s">
+      <c r="F607" s="4" t="s">
         <v>1730</v>
       </c>
-      <c r="G607" t="s">
+      <c r="G607" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="H607">
-        <v>35</v>
-      </c>
-      <c r="I607" s="1">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="608" spans="1:9">
-      <c r="A608" t="s">
-        <v>49</v>
-      </c>
-      <c r="B608" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C608" t="s">
-        <v>51</v>
-      </c>
-      <c r="D608" t="s">
+      <c r="H607" s="4" t="s">
+        <v>3290</v>
+      </c>
+      <c r="I607" s="8">
+        <v>45900</v>
+      </c>
+      <c r="J607" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10" s="4" customFormat="1">
+      <c r="A608" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B608" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C608" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D608" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E608" t="s">
+      <c r="E608" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F608" t="s">
+      <c r="F608" s="4" t="s">
         <v>1731</v>
       </c>
-      <c r="G608" t="s">
+      <c r="G608" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="H608">
-        <v>75</v>
-      </c>
-      <c r="I608" s="1">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="609" spans="1:9">
-      <c r="A609" t="s">
-        <v>49</v>
-      </c>
-      <c r="B609" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C609" t="s">
-        <v>51</v>
-      </c>
-      <c r="D609" t="s">
+      <c r="H608" s="4" t="s">
+        <v>3291</v>
+      </c>
+      <c r="I608" s="8">
+        <v>45900</v>
+      </c>
+      <c r="J608" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10" s="4" customFormat="1">
+      <c r="A609" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B609" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C609" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D609" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E609" t="s">
+      <c r="E609" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F609" t="s">
+      <c r="F609" s="4" t="s">
         <v>1732</v>
       </c>
-      <c r="G609" t="s">
+      <c r="G609" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="H609">
-        <v>10</v>
-      </c>
-      <c r="I609" s="1">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="610" spans="1:9">
-      <c r="A610" t="s">
-        <v>49</v>
-      </c>
-      <c r="B610" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C610" t="s">
-        <v>51</v>
-      </c>
-      <c r="D610" t="s">
+      <c r="H609" s="4" t="s">
+        <v>3292</v>
+      </c>
+      <c r="I609" s="8">
+        <v>45900</v>
+      </c>
+      <c r="J609" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10" s="4" customFormat="1">
+      <c r="A610" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B610" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C610" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D610" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E610" t="s">
+      <c r="E610" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F610" t="s">
+      <c r="F610" s="4" t="s">
         <v>1733</v>
       </c>
-      <c r="G610" t="s">
+      <c r="G610" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="H610">
-        <v>45.5</v>
-      </c>
-      <c r="I610" s="1">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="611" spans="1:9">
-      <c r="A611" t="s">
-        <v>49</v>
-      </c>
-      <c r="B611" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C611" t="s">
-        <v>51</v>
-      </c>
-      <c r="D611" t="s">
+      <c r="H610" s="4" t="s">
+        <v>3293</v>
+      </c>
+      <c r="I610" s="8">
+        <v>45900</v>
+      </c>
+      <c r="J610" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10" s="4" customFormat="1">
+      <c r="A611" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B611" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C611" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D611" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E611" t="s">
+      <c r="E611" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F611" t="s">
+      <c r="F611" s="4" t="s">
         <v>1734</v>
       </c>
-      <c r="G611" t="s">
+      <c r="G611" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="H611">
-        <v>25</v>
-      </c>
-      <c r="I611" s="1">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="612" spans="1:9">
-      <c r="A612" t="s">
-        <v>49</v>
-      </c>
-      <c r="B612" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C612" t="s">
-        <v>51</v>
-      </c>
-      <c r="D612" t="s">
+      <c r="H611" s="4" t="s">
+        <v>3294</v>
+      </c>
+      <c r="I611" s="8">
+        <v>45900</v>
+      </c>
+      <c r="J611" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10" s="4" customFormat="1">
+      <c r="A612" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B612" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C612" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D612" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E612" t="s">
+      <c r="E612" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F612" t="s">
+      <c r="F612" s="4" t="s">
         <v>1735</v>
       </c>
-      <c r="G612" t="s">
+      <c r="G612" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="H612">
-        <v>25</v>
-      </c>
-      <c r="I612" s="1">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="613" spans="1:9">
-      <c r="A613" t="s">
-        <v>49</v>
-      </c>
-      <c r="B613" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C613" t="s">
-        <v>51</v>
-      </c>
-      <c r="D613" t="s">
+      <c r="H612" s="4" t="s">
+        <v>3295</v>
+      </c>
+      <c r="I612" s="8">
+        <v>45900</v>
+      </c>
+      <c r="J612" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10" s="4" customFormat="1">
+      <c r="A613" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B613" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C613" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D613" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E613" t="s">
+      <c r="E613" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F613" t="s">
+      <c r="F613" s="4" t="s">
         <v>1737</v>
       </c>
-      <c r="G613" t="s">
+      <c r="G613" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="H613">
-        <v>9.5</v>
-      </c>
-      <c r="I613" s="1">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="614" spans="1:9">
-      <c r="A614" t="s">
-        <v>49</v>
-      </c>
-      <c r="B614" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C614" t="s">
-        <v>51</v>
-      </c>
-      <c r="D614" t="s">
+      <c r="H613" s="4" t="s">
+        <v>3297</v>
+      </c>
+      <c r="I613" s="8">
+        <v>45900</v>
+      </c>
+      <c r="J613" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10" s="4" customFormat="1">
+      <c r="A614" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B614" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C614" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D614" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E614" t="s">
+      <c r="E614" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F614" t="s">
+      <c r="F614" s="4" t="s">
         <v>1738</v>
       </c>
-      <c r="G614" t="s">
+      <c r="G614" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="H614">
-        <v>5</v>
-      </c>
-      <c r="I614" s="1">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="615" spans="1:9">
-      <c r="A615" t="s">
-        <v>49</v>
-      </c>
-      <c r="B615" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C615" t="s">
-        <v>51</v>
-      </c>
-      <c r="D615" t="s">
+      <c r="H614" s="4" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I614" s="8">
+        <v>45900</v>
+      </c>
+      <c r="J614" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10" s="4" customFormat="1">
+      <c r="A615" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B615" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C615" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D615" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E615" t="s">
+      <c r="E615" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F615" t="s">
+      <c r="F615" s="4" t="s">
         <v>1739</v>
       </c>
-      <c r="G615" t="s">
+      <c r="G615" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="H615">
-        <v>18.5</v>
-      </c>
-      <c r="I615" s="1">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="616" spans="1:9">
-      <c r="A616" t="s">
-        <v>49</v>
-      </c>
-      <c r="B616" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C616" t="s">
-        <v>51</v>
-      </c>
-      <c r="D616" t="s">
+      <c r="H615" s="4" t="s">
+        <v>3299</v>
+      </c>
+      <c r="I615" s="8">
+        <v>45900</v>
+      </c>
+      <c r="J615" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10" s="4" customFormat="1">
+      <c r="A616" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B616" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C616" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D616" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E616" t="s">
+      <c r="E616" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F616" t="s">
+      <c r="F616" s="4" t="s">
         <v>1740</v>
       </c>
-      <c r="G616" t="s">
+      <c r="G616" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="H616">
-        <v>30</v>
-      </c>
-      <c r="I616" s="1">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="617" spans="1:9">
-      <c r="A617" t="s">
-        <v>49</v>
-      </c>
-      <c r="B617" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C617" t="s">
-        <v>51</v>
-      </c>
-      <c r="D617" t="s">
+      <c r="H616" s="4" t="s">
+        <v>3300</v>
+      </c>
+      <c r="I616" s="8">
+        <v>45900</v>
+      </c>
+      <c r="J616" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" s="4" customFormat="1">
+      <c r="A617" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B617" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C617" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D617" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E617" t="s">
+      <c r="E617" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F617" t="s">
+      <c r="F617" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G617" t="s">
+      <c r="G617" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="H617">
-        <v>40</v>
-      </c>
-      <c r="I617" s="1">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="618" spans="1:9">
-      <c r="A618" t="s">
-        <v>49</v>
-      </c>
-      <c r="B618" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C618" t="s">
-        <v>51</v>
-      </c>
-      <c r="D618" t="s">
+      <c r="H617" s="4" t="s">
+        <v>3301</v>
+      </c>
+      <c r="I617" s="8">
+        <v>45900</v>
+      </c>
+      <c r="J617" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10" s="4" customFormat="1">
+      <c r="A618" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B618" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C618" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D618" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E618" t="s">
+      <c r="E618" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F618" t="s">
+      <c r="F618" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G618" t="s">
-        <v>14</v>
-      </c>
-      <c r="H618">
-        <v>25</v>
-      </c>
-      <c r="I618" s="1">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="619" spans="1:9">
+      <c r="G618" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H618" s="4" t="s">
+        <v>3295</v>
+      </c>
+      <c r="I618" s="8">
+        <v>45900</v>
+      </c>
+      <c r="J618" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10">
       <c r="A619" t="s">
         <v>49</v>
       </c>
@@ -63812,14 +64032,17 @@
       <c r="G619" t="s">
         <v>1108</v>
       </c>
-      <c r="H619">
-        <v>110</v>
+      <c r="H619" s="4" t="s">
+        <v>3289</v>
       </c>
       <c r="I619" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="620" spans="1:9">
+      <c r="J619" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10">
       <c r="A620" t="s">
         <v>49</v>
       </c>
@@ -63841,14 +64064,17 @@
       <c r="G620" t="s">
         <v>1108</v>
       </c>
-      <c r="H620">
-        <v>35</v>
+      <c r="H620" s="4" t="s">
+        <v>3290</v>
       </c>
       <c r="I620" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="621" spans="1:9">
+      <c r="J620" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="621" spans="1:10">
       <c r="A621" t="s">
         <v>49</v>
       </c>
@@ -63870,14 +64096,17 @@
       <c r="G621" t="s">
         <v>1108</v>
       </c>
-      <c r="H621">
-        <v>75</v>
+      <c r="H621" s="4" t="s">
+        <v>3291</v>
       </c>
       <c r="I621" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="622" spans="1:9">
+      <c r="J621" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10">
       <c r="A622" t="s">
         <v>49</v>
       </c>
@@ -63899,14 +64128,17 @@
       <c r="G622" t="s">
         <v>1108</v>
       </c>
-      <c r="H622">
-        <v>10</v>
+      <c r="H622" s="4" t="s">
+        <v>3292</v>
       </c>
       <c r="I622" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="623" spans="1:9">
+      <c r="J622" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10">
       <c r="A623" t="s">
         <v>49</v>
       </c>
@@ -63928,14 +64160,17 @@
       <c r="G623" t="s">
         <v>1108</v>
       </c>
-      <c r="H623">
-        <v>45.5</v>
+      <c r="H623" s="4" t="s">
+        <v>3293</v>
       </c>
       <c r="I623" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="624" spans="1:9">
+      <c r="J623" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10">
       <c r="A624" t="s">
         <v>49</v>
       </c>
@@ -63957,14 +64192,17 @@
       <c r="G624" t="s">
         <v>1108</v>
       </c>
-      <c r="H624">
-        <v>25</v>
+      <c r="H624" s="4" t="s">
+        <v>3294</v>
       </c>
       <c r="I624" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="625" spans="1:9">
+      <c r="J624" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10">
       <c r="A625" t="s">
         <v>49</v>
       </c>
@@ -63986,14 +64224,17 @@
       <c r="G625" t="s">
         <v>1108</v>
       </c>
-      <c r="H625">
-        <v>25</v>
+      <c r="H625" s="4" t="s">
+        <v>3295</v>
       </c>
       <c r="I625" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="626" spans="1:9">
+      <c r="J625" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10">
       <c r="A626" t="s">
         <v>49</v>
       </c>
@@ -64015,14 +64256,17 @@
       <c r="G626" t="s">
         <v>1108</v>
       </c>
-      <c r="H626">
-        <v>9.5</v>
+      <c r="H626" s="4" t="s">
+        <v>3297</v>
       </c>
       <c r="I626" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="627" spans="1:9">
+      <c r="J626" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10">
       <c r="A627" t="s">
         <v>49</v>
       </c>
@@ -64044,14 +64288,17 @@
       <c r="G627" t="s">
         <v>1108</v>
       </c>
-      <c r="H627">
-        <v>5</v>
+      <c r="H627" s="4" t="s">
+        <v>3298</v>
       </c>
       <c r="I627" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="628" spans="1:9">
+      <c r="J627" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10">
       <c r="A628" t="s">
         <v>49</v>
       </c>
@@ -64073,14 +64320,17 @@
       <c r="G628" t="s">
         <v>1108</v>
       </c>
-      <c r="H628">
-        <v>18.5</v>
+      <c r="H628" s="4" t="s">
+        <v>3299</v>
       </c>
       <c r="I628" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="629" spans="1:9">
+      <c r="J628" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10">
       <c r="A629" t="s">
         <v>49</v>
       </c>
@@ -64102,14 +64352,17 @@
       <c r="G629" t="s">
         <v>1108</v>
       </c>
-      <c r="H629">
-        <v>30</v>
+      <c r="H629" s="4" t="s">
+        <v>3300</v>
       </c>
       <c r="I629" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="630" spans="1:9">
+      <c r="J629" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="630" spans="1:10">
       <c r="A630" t="s">
         <v>49</v>
       </c>
@@ -64131,14 +64384,17 @@
       <c r="G630" t="s">
         <v>1108</v>
       </c>
-      <c r="H630">
-        <v>40</v>
+      <c r="H630" s="4" t="s">
+        <v>3301</v>
       </c>
       <c r="I630" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="631" spans="1:9">
+      <c r="J630" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10">
       <c r="A631" t="s">
         <v>49</v>
       </c>
@@ -64160,14 +64416,17 @@
       <c r="G631" t="s">
         <v>14</v>
       </c>
-      <c r="H631">
-        <v>25</v>
+      <c r="H631" s="4" t="s">
+        <v>3295</v>
       </c>
       <c r="I631" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="632" spans="1:9">
+      <c r="J631" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="632" spans="1:10">
       <c r="A632" t="s">
         <v>49</v>
       </c>
@@ -64189,14 +64448,17 @@
       <c r="G632" t="s">
         <v>1108</v>
       </c>
-      <c r="H632">
-        <v>50</v>
+      <c r="H632" s="4" t="s">
+        <v>3304</v>
       </c>
       <c r="I632" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="633" spans="1:9">
+      <c r="J632" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="633" spans="1:10">
       <c r="A633" t="s">
         <v>49</v>
       </c>
@@ -64218,14 +64480,17 @@
       <c r="G633" t="s">
         <v>1108</v>
       </c>
-      <c r="H633">
-        <v>50</v>
+      <c r="H633" s="4" t="s">
+        <v>3304</v>
       </c>
       <c r="I633" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="634" spans="1:9">
+      <c r="J633" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10">
       <c r="A634" t="s">
         <v>49</v>
       </c>
@@ -64247,14 +64512,17 @@
       <c r="G634" t="s">
         <v>1108</v>
       </c>
-      <c r="H634">
-        <v>50</v>
+      <c r="H634" s="4" t="s">
+        <v>3304</v>
       </c>
       <c r="I634" s="1">
         <v>45900</v>
       </c>
-    </row>
-    <row r="635" spans="1:9">
+      <c r="J634" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="635" spans="1:10">
       <c r="A635" t="s">
         <v>49</v>
       </c>
@@ -64283,7 +64551,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="636" spans="1:9">
+    <row r="636" spans="1:10">
       <c r="A636" t="s">
         <v>49</v>
       </c>
@@ -64312,7 +64580,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="637" spans="1:9">
+    <row r="637" spans="1:10">
       <c r="A637" t="s">
         <v>49</v>
       </c>
@@ -64341,7 +64609,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="638" spans="1:9">
+    <row r="638" spans="1:10">
       <c r="A638" t="s">
         <v>49</v>
       </c>
@@ -64370,7 +64638,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="639" spans="1:9">
+    <row r="639" spans="1:10">
       <c r="A639" t="s">
         <v>49</v>
       </c>
@@ -64399,7 +64667,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="640" spans="1:9">
+    <row r="640" spans="1:10">
       <c r="A640" t="s">
         <v>49</v>
       </c>

--- a/Data/LCL Pricing Navexel2 2.xlsx
+++ b/Data/LCL Pricing Navexel2 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Navexcel\LCL Pricing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E003B663-6F62-406F-9EEA-7348E0E86459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B25DE7C-7F33-4C18-99C3-C4AC4FC739EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{83FA37E5-C1F9-49A3-A48E-5FC3B7FA6C2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83FA37E5-C1F9-49A3-A48E-5FC3B7FA6C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="OF Direct" sheetId="1" r:id="rId1"/>
@@ -10484,7 +10484,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{04E15D8D-3A4A-4552-866E-DB2C4BD96C62}" name="Table1_1" displayName="Table1_1" ref="A1:K929" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K929" xr:uid="{04E15D8D-3A4A-4552-866E-DB2C4BD96C62}"/>
+  <autoFilter ref="A1:K929" xr:uid="{04E15D8D-3A4A-4552-866E-DB2C4BD96C62}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="HKHKG"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{664F9003-FCB8-4E0B-B458-5E41EE3C3364}" uniqueName="1" name="Agent" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{710587EE-B70F-4190-AF9D-51BABF3B1DB3}" uniqueName="2" name="Reworking Port" queryTableFieldId="2" dataDxfId="4"/>
@@ -10822,8 +10828,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11849,8 +11855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87076300-3480-4871-8B96-6FB5459C34F3}">
   <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16304,7 +16310,7 @@
   <dimension ref="A1:K929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C714" sqref="C714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16357,7 +16363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -16389,7 +16395,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -16421,7 +16427,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -16453,7 +16459,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -16485,7 +16491,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -16517,7 +16523,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -16552,7 +16558,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -16584,7 +16590,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -16616,7 +16622,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -16648,7 +16654,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -16680,7 +16686,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -16712,7 +16718,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -16744,7 +16750,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -16776,7 +16782,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -16811,7 +16817,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -16843,7 +16849,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -16875,7 +16881,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -16907,7 +16913,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -16939,7 +16945,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -16971,7 +16977,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -17003,7 +17009,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -17035,7 +17041,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -17067,7 +17073,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -17099,7 +17105,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -17131,7 +17137,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -17163,7 +17169,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -17195,7 +17201,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -17227,7 +17233,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -17259,7 +17265,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -17291,7 +17297,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -17323,7 +17329,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -17355,7 +17361,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -17387,7 +17393,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -17419,7 +17425,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -17451,7 +17457,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -17483,7 +17489,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -17515,7 +17521,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -17547,7 +17553,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -17579,7 +17585,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -17611,7 +17617,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -17643,7 +17649,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -17675,7 +17681,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -17707,7 +17713,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -17739,7 +17745,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -17771,7 +17777,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -17803,7 +17809,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -17835,7 +17841,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -17867,7 +17873,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -17899,7 +17905,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -17931,7 +17937,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -17963,7 +17969,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -17995,7 +18001,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -18027,7 +18033,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -18059,7 +18065,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -18091,7 +18097,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -18123,7 +18129,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -18152,7 +18158,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -18184,7 +18190,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -18216,7 +18222,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -18248,7 +18254,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -18283,7 +18289,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -18315,7 +18321,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -18347,7 +18353,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" hidden="1">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -18379,7 +18385,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" hidden="1">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -18411,7 +18417,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -18443,7 +18449,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -18478,7 +18484,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -18507,7 +18513,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -18539,7 +18545,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" hidden="1">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -18571,7 +18577,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" hidden="1">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -18600,7 +18606,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" hidden="1">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -18632,7 +18638,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" hidden="1">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -18664,7 +18670,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" hidden="1">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -18696,7 +18702,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" hidden="1">
       <c r="A75" t="s">
         <v>49</v>
       </c>
@@ -18728,7 +18734,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" hidden="1">
       <c r="A76" t="s">
         <v>49</v>
       </c>
@@ -18760,7 +18766,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" hidden="1">
       <c r="A77" t="s">
         <v>49</v>
       </c>
@@ -18792,7 +18798,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" hidden="1">
       <c r="A78" t="s">
         <v>49</v>
       </c>
@@ -18827,7 +18833,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" hidden="1">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -18859,7 +18865,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" hidden="1">
       <c r="A80" t="s">
         <v>49</v>
       </c>
@@ -18891,7 +18897,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" hidden="1">
       <c r="A81" t="s">
         <v>49</v>
       </c>
@@ -18923,7 +18929,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" hidden="1">
       <c r="A82" t="s">
         <v>49</v>
       </c>
@@ -18955,7 +18961,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" hidden="1">
       <c r="A83" t="s">
         <v>49</v>
       </c>
@@ -18990,7 +18996,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" hidden="1">
       <c r="A84" t="s">
         <v>49</v>
       </c>
@@ -19019,7 +19025,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" hidden="1">
       <c r="A85" t="s">
         <v>49</v>
       </c>
@@ -19051,7 +19057,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" hidden="1">
       <c r="A86" t="s">
         <v>49</v>
       </c>
@@ -19080,7 +19086,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" hidden="1">
       <c r="A87" t="s">
         <v>49</v>
       </c>
@@ -19115,7 +19121,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" hidden="1">
       <c r="A88" t="s">
         <v>49</v>
       </c>
@@ -19144,7 +19150,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" hidden="1">
       <c r="A89" t="s">
         <v>49</v>
       </c>
@@ -19176,7 +19182,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" hidden="1">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -19208,7 +19214,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" hidden="1">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -19240,7 +19246,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" hidden="1">
       <c r="A92" t="s">
         <v>49</v>
       </c>
@@ -19272,7 +19278,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" hidden="1">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -19304,7 +19310,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" hidden="1">
       <c r="A94" t="s">
         <v>49</v>
       </c>
@@ -19333,7 +19339,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" hidden="1">
       <c r="A95" t="s">
         <v>49</v>
       </c>
@@ -19365,7 +19371,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" hidden="1">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -19400,7 +19406,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97" t="s">
         <v>49</v>
       </c>
@@ -19432,7 +19438,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98" t="s">
         <v>49</v>
       </c>
@@ -19464,7 +19470,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" hidden="1">
       <c r="A99" t="s">
         <v>49</v>
       </c>
@@ -19493,7 +19499,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" hidden="1">
       <c r="A100" t="s">
         <v>49</v>
       </c>
@@ -19525,7 +19531,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101" t="s">
         <v>49</v>
       </c>
@@ -19554,7 +19560,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102" t="s">
         <v>49</v>
       </c>
@@ -19583,7 +19589,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" hidden="1">
       <c r="A103" t="s">
         <v>49</v>
       </c>
@@ -19615,7 +19621,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" hidden="1">
       <c r="A104" t="s">
         <v>49</v>
       </c>
@@ -19647,7 +19653,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" hidden="1">
       <c r="A105" t="s">
         <v>49</v>
       </c>
@@ -19679,7 +19685,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" hidden="1">
       <c r="A106" t="s">
         <v>49</v>
       </c>
@@ -19708,7 +19714,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" hidden="1">
       <c r="A107" t="s">
         <v>49</v>
       </c>
@@ -19737,7 +19743,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" hidden="1">
       <c r="A108" t="s">
         <v>49</v>
       </c>
@@ -19766,7 +19772,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" hidden="1">
       <c r="A109" t="s">
         <v>49</v>
       </c>
@@ -19795,7 +19801,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" hidden="1">
       <c r="A110" t="s">
         <v>49</v>
       </c>
@@ -19827,7 +19833,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" hidden="1">
       <c r="A111" t="s">
         <v>49</v>
       </c>
@@ -19859,7 +19865,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" hidden="1">
       <c r="A112" t="s">
         <v>49</v>
       </c>
@@ -19888,7 +19894,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" hidden="1">
       <c r="A113" t="s">
         <v>49</v>
       </c>
@@ -19917,7 +19923,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" hidden="1">
       <c r="A114" t="s">
         <v>49</v>
       </c>
@@ -19949,7 +19955,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" hidden="1">
       <c r="A115" t="s">
         <v>49</v>
       </c>
@@ -19978,7 +19984,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" hidden="1">
       <c r="A116" t="s">
         <v>49</v>
       </c>
@@ -20007,7 +20013,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" hidden="1">
       <c r="A117" t="s">
         <v>49</v>
       </c>
@@ -20039,7 +20045,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" hidden="1">
       <c r="A118" t="s">
         <v>49</v>
       </c>
@@ -20071,7 +20077,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" hidden="1">
       <c r="A119" t="s">
         <v>49</v>
       </c>
@@ -20103,7 +20109,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" hidden="1">
       <c r="A120" t="s">
         <v>49</v>
       </c>
@@ -20132,7 +20138,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" hidden="1">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -20161,7 +20167,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" hidden="1">
       <c r="A122" t="s">
         <v>49</v>
       </c>
@@ -20193,7 +20199,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" hidden="1">
       <c r="A123" t="s">
         <v>49</v>
       </c>
@@ -20225,7 +20231,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" hidden="1">
       <c r="A124" t="s">
         <v>49</v>
       </c>
@@ -20260,7 +20266,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" hidden="1">
       <c r="A125" t="s">
         <v>49</v>
       </c>
@@ -20295,7 +20301,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" hidden="1">
       <c r="A126" t="s">
         <v>49</v>
       </c>
@@ -20327,7 +20333,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" hidden="1">
       <c r="A127" t="s">
         <v>49</v>
       </c>
@@ -20359,7 +20365,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" hidden="1">
       <c r="A128" t="s">
         <v>49</v>
       </c>
@@ -20394,7 +20400,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" hidden="1">
       <c r="A129" t="s">
         <v>49</v>
       </c>
@@ -20426,7 +20432,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" hidden="1">
       <c r="A130" t="s">
         <v>49</v>
       </c>
@@ -20458,7 +20464,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" hidden="1">
       <c r="A131" t="s">
         <v>49</v>
       </c>
@@ -20487,7 +20493,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" hidden="1">
       <c r="A132" t="s">
         <v>49</v>
       </c>
@@ -20519,7 +20525,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" hidden="1">
       <c r="A133" t="s">
         <v>49</v>
       </c>
@@ -20551,7 +20557,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" hidden="1">
       <c r="A134" t="s">
         <v>49</v>
       </c>
@@ -20583,7 +20589,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" hidden="1">
       <c r="A135" t="s">
         <v>49</v>
       </c>
@@ -20612,7 +20618,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" hidden="1">
       <c r="A136" t="s">
         <v>49</v>
       </c>
@@ -20644,7 +20650,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" hidden="1">
       <c r="A137" t="s">
         <v>49</v>
       </c>
@@ -20676,7 +20682,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" hidden="1">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -20708,7 +20714,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" hidden="1">
       <c r="A139" t="s">
         <v>49</v>
       </c>
@@ -20740,7 +20746,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" hidden="1">
       <c r="A140" t="s">
         <v>49</v>
       </c>
@@ -20769,7 +20775,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" hidden="1">
       <c r="A141" t="s">
         <v>49</v>
       </c>
@@ -20801,7 +20807,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" hidden="1">
       <c r="A142" t="s">
         <v>49</v>
       </c>
@@ -20833,7 +20839,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" hidden="1">
       <c r="A143" t="s">
         <v>49</v>
       </c>
@@ -20865,7 +20871,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" hidden="1">
       <c r="A144" t="s">
         <v>49</v>
       </c>
@@ -20897,7 +20903,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" hidden="1">
       <c r="A145" t="s">
         <v>49</v>
       </c>
@@ -20932,7 +20938,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" hidden="1">
       <c r="A146" t="s">
         <v>49</v>
       </c>
@@ -20967,7 +20973,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" hidden="1">
       <c r="A147" t="s">
         <v>49</v>
       </c>
@@ -20999,7 +21005,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" hidden="1">
       <c r="A148" t="s">
         <v>49</v>
       </c>
@@ -21031,7 +21037,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" hidden="1">
       <c r="A149" t="s">
         <v>49</v>
       </c>
@@ -21066,7 +21072,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" hidden="1">
       <c r="A150" t="s">
         <v>49</v>
       </c>
@@ -21098,7 +21104,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" hidden="1">
       <c r="A151" t="s">
         <v>49</v>
       </c>
@@ -21127,7 +21133,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" hidden="1">
       <c r="A152" t="s">
         <v>49</v>
       </c>
@@ -21159,7 +21165,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" hidden="1">
       <c r="A153" t="s">
         <v>49</v>
       </c>
@@ -21191,7 +21197,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" hidden="1">
       <c r="A154" t="s">
         <v>49</v>
       </c>
@@ -21223,7 +21229,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" hidden="1">
       <c r="A155" t="s">
         <v>49</v>
       </c>
@@ -21252,7 +21258,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" hidden="1">
       <c r="A156" t="s">
         <v>49</v>
       </c>
@@ -21284,7 +21290,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" hidden="1">
       <c r="A157" t="s">
         <v>49</v>
       </c>
@@ -21316,7 +21322,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" hidden="1">
       <c r="A158" t="s">
         <v>49</v>
       </c>
@@ -21348,7 +21354,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" hidden="1">
       <c r="A159" t="s">
         <v>49</v>
       </c>
@@ -21380,7 +21386,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" hidden="1">
       <c r="A160" t="s">
         <v>49</v>
       </c>
@@ -21412,7 +21418,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" hidden="1">
       <c r="A161" t="s">
         <v>49</v>
       </c>
@@ -21441,7 +21447,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" hidden="1">
       <c r="A162" t="s">
         <v>49</v>
       </c>
@@ -21470,7 +21476,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" hidden="1">
       <c r="A163" t="s">
         <v>49</v>
       </c>
@@ -21502,7 +21508,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" hidden="1">
       <c r="A164" t="s">
         <v>49</v>
       </c>
@@ -21534,7 +21540,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" hidden="1">
       <c r="A165" t="s">
         <v>49</v>
       </c>
@@ -21566,7 +21572,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" hidden="1">
       <c r="A166" t="s">
         <v>49</v>
       </c>
@@ -21598,7 +21604,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" hidden="1">
       <c r="A167" t="s">
         <v>49</v>
       </c>
@@ -21627,7 +21633,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" hidden="1">
       <c r="A168" t="s">
         <v>49</v>
       </c>
@@ -21656,7 +21662,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" hidden="1">
       <c r="A169" t="s">
         <v>49</v>
       </c>
@@ -21691,7 +21697,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" hidden="1">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -21723,7 +21729,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" hidden="1">
       <c r="A171" t="s">
         <v>49</v>
       </c>
@@ -21755,7 +21761,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" hidden="1">
       <c r="A172" t="s">
         <v>49</v>
       </c>
@@ -21787,7 +21793,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" hidden="1">
       <c r="A173" t="s">
         <v>49</v>
       </c>
@@ -21816,7 +21822,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" hidden="1">
       <c r="A174" t="s">
         <v>49</v>
       </c>
@@ -21848,7 +21854,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" hidden="1">
       <c r="A175" t="s">
         <v>49</v>
       </c>
@@ -21877,7 +21883,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" hidden="1">
       <c r="A176" t="s">
         <v>49</v>
       </c>
@@ -21909,7 +21915,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" hidden="1">
       <c r="A177" t="s">
         <v>49</v>
       </c>
@@ -21941,7 +21947,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" hidden="1">
       <c r="A178" t="s">
         <v>49</v>
       </c>
@@ -21973,7 +21979,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" hidden="1">
       <c r="A179" t="s">
         <v>49</v>
       </c>
@@ -22005,7 +22011,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" hidden="1">
       <c r="A180" t="s">
         <v>49</v>
       </c>
@@ -22037,7 +22043,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" hidden="1">
       <c r="A181" t="s">
         <v>49</v>
       </c>
@@ -22069,7 +22075,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" hidden="1">
       <c r="A182" t="s">
         <v>49</v>
       </c>
@@ -22098,7 +22104,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" hidden="1">
       <c r="A183" t="s">
         <v>49</v>
       </c>
@@ -22133,7 +22139,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" hidden="1">
       <c r="A184" t="s">
         <v>49</v>
       </c>
@@ -22162,7 +22168,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" hidden="1">
       <c r="A185" t="s">
         <v>49</v>
       </c>
@@ -22191,7 +22197,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" hidden="1">
       <c r="A186" t="s">
         <v>49</v>
       </c>
@@ -22223,7 +22229,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" hidden="1">
       <c r="A187" t="s">
         <v>49</v>
       </c>
@@ -22252,7 +22258,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" hidden="1">
       <c r="A188" t="s">
         <v>49</v>
       </c>
@@ -22284,7 +22290,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" hidden="1">
       <c r="A189" t="s">
         <v>49</v>
       </c>
@@ -22313,7 +22319,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" hidden="1">
       <c r="A190" t="s">
         <v>49</v>
       </c>
@@ -22345,7 +22351,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" hidden="1">
       <c r="A191" t="s">
         <v>49</v>
       </c>
@@ -22374,7 +22380,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" hidden="1">
       <c r="A192" t="s">
         <v>49</v>
       </c>
@@ -22406,7 +22412,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" hidden="1">
       <c r="A193" t="s">
         <v>49</v>
       </c>
@@ -22438,7 +22444,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" hidden="1">
       <c r="A194" t="s">
         <v>49</v>
       </c>
@@ -22470,7 +22476,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" hidden="1">
       <c r="A195" t="s">
         <v>49</v>
       </c>
@@ -22502,7 +22508,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" hidden="1">
       <c r="A196" t="s">
         <v>49</v>
       </c>
@@ -22534,7 +22540,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" hidden="1">
       <c r="A197" t="s">
         <v>49</v>
       </c>
@@ -22563,7 +22569,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" hidden="1">
       <c r="A198" t="s">
         <v>49</v>
       </c>
@@ -22592,7 +22598,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" hidden="1">
       <c r="A199" t="s">
         <v>49</v>
       </c>
@@ -22621,7 +22627,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" hidden="1">
       <c r="A200" t="s">
         <v>49</v>
       </c>
@@ -22653,7 +22659,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" hidden="1">
       <c r="A201" t="s">
         <v>49</v>
       </c>
@@ -22685,7 +22691,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" hidden="1">
       <c r="A202" t="s">
         <v>49</v>
       </c>
@@ -22717,7 +22723,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" hidden="1">
       <c r="A203" t="s">
         <v>49</v>
       </c>
@@ -22749,7 +22755,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" hidden="1">
       <c r="A204" t="s">
         <v>49</v>
       </c>
@@ -22781,7 +22787,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" hidden="1">
       <c r="A205" t="s">
         <v>49</v>
       </c>
@@ -22816,7 +22822,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" hidden="1">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -22848,7 +22854,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" hidden="1">
       <c r="A207" t="s">
         <v>49</v>
       </c>
@@ -22880,7 +22886,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" hidden="1">
       <c r="A208" t="s">
         <v>49</v>
       </c>
@@ -22915,7 +22921,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" hidden="1">
       <c r="A209" t="s">
         <v>49</v>
       </c>
@@ -22947,7 +22953,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" hidden="1">
       <c r="A210" t="s">
         <v>49</v>
       </c>
@@ -22979,7 +22985,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" hidden="1">
       <c r="A211" t="s">
         <v>49</v>
       </c>
@@ -23011,7 +23017,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" hidden="1">
       <c r="A212" t="s">
         <v>49</v>
       </c>
@@ -23040,7 +23046,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" hidden="1">
       <c r="A213" t="s">
         <v>49</v>
       </c>
@@ -23069,7 +23075,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" hidden="1">
       <c r="A214" t="s">
         <v>49</v>
       </c>
@@ -23098,7 +23104,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" hidden="1">
       <c r="A215" t="s">
         <v>49</v>
       </c>
@@ -23127,7 +23133,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" hidden="1">
       <c r="A216" t="s">
         <v>49</v>
       </c>
@@ -23156,7 +23162,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" hidden="1">
       <c r="A217" t="s">
         <v>49</v>
       </c>
@@ -23185,7 +23191,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" hidden="1">
       <c r="A218" t="s">
         <v>49</v>
       </c>
@@ -23214,7 +23220,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" hidden="1">
       <c r="A219" t="s">
         <v>49</v>
       </c>
@@ -23246,7 +23252,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" hidden="1">
       <c r="A220" t="s">
         <v>49</v>
       </c>
@@ -23275,7 +23281,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" hidden="1">
       <c r="A221" t="s">
         <v>49</v>
       </c>
@@ -23307,7 +23313,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" hidden="1">
       <c r="A222" t="s">
         <v>49</v>
       </c>
@@ -23336,7 +23342,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" hidden="1">
       <c r="A223" t="s">
         <v>49</v>
       </c>
@@ -23365,7 +23371,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" hidden="1">
       <c r="A224" t="s">
         <v>49</v>
       </c>
@@ -23400,7 +23406,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" hidden="1">
       <c r="A225" t="s">
         <v>49</v>
       </c>
@@ -23432,7 +23438,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" hidden="1">
       <c r="A226" t="s">
         <v>49</v>
       </c>
@@ -23464,7 +23470,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" hidden="1">
       <c r="A227" t="s">
         <v>49</v>
       </c>
@@ -23493,7 +23499,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" hidden="1">
       <c r="A228" t="s">
         <v>49</v>
       </c>
@@ -23522,7 +23528,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" hidden="1">
       <c r="A229" t="s">
         <v>49</v>
       </c>
@@ -23551,7 +23557,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" hidden="1">
       <c r="A230" t="s">
         <v>49</v>
       </c>
@@ -23580,7 +23586,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" hidden="1">
       <c r="A231" t="s">
         <v>49</v>
       </c>
@@ -23609,7 +23615,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" hidden="1">
       <c r="A232" t="s">
         <v>49</v>
       </c>
@@ -23641,7 +23647,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" hidden="1">
       <c r="A233" t="s">
         <v>49</v>
       </c>
@@ -23673,7 +23679,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" hidden="1">
       <c r="A234" t="s">
         <v>49</v>
       </c>
@@ -23708,7 +23714,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" hidden="1">
       <c r="A235" t="s">
         <v>49</v>
       </c>
@@ -23740,7 +23746,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" hidden="1">
       <c r="A236" t="s">
         <v>49</v>
       </c>
@@ -23772,7 +23778,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" hidden="1">
       <c r="A237" t="s">
         <v>49</v>
       </c>
@@ -23801,7 +23807,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" hidden="1">
       <c r="A238" t="s">
         <v>49</v>
       </c>
@@ -23833,7 +23839,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" hidden="1">
       <c r="A239" t="s">
         <v>49</v>
       </c>
@@ -23868,7 +23874,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" hidden="1">
       <c r="A240" t="s">
         <v>49</v>
       </c>
@@ -23897,7 +23903,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" hidden="1">
       <c r="A241" t="s">
         <v>49</v>
       </c>
@@ -23929,7 +23935,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" hidden="1">
       <c r="A242" t="s">
         <v>49</v>
       </c>
@@ -23961,7 +23967,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" hidden="1">
       <c r="A243" t="s">
         <v>49</v>
       </c>
@@ -23993,7 +23999,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" hidden="1">
       <c r="A244" t="s">
         <v>49</v>
       </c>
@@ -24022,7 +24028,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" hidden="1">
       <c r="A245" t="s">
         <v>49</v>
       </c>
@@ -24054,7 +24060,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" hidden="1">
       <c r="A246" t="s">
         <v>49</v>
       </c>
@@ -24086,7 +24092,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" hidden="1">
       <c r="A247" t="s">
         <v>49</v>
       </c>
@@ -24118,7 +24124,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" hidden="1">
       <c r="A248" t="s">
         <v>49</v>
       </c>
@@ -24147,7 +24153,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" hidden="1">
       <c r="A249" t="s">
         <v>49</v>
       </c>
@@ -24176,7 +24182,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" hidden="1">
       <c r="A250" t="s">
         <v>49</v>
       </c>
@@ -24211,7 +24217,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" hidden="1">
       <c r="A251" t="s">
         <v>49</v>
       </c>
@@ -24243,7 +24249,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" hidden="1">
       <c r="A252" t="s">
         <v>49</v>
       </c>
@@ -24272,7 +24278,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" hidden="1">
       <c r="A253" t="s">
         <v>49</v>
       </c>
@@ -24301,7 +24307,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" hidden="1">
       <c r="A254" t="s">
         <v>49</v>
       </c>
@@ -24333,7 +24339,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" hidden="1">
       <c r="A255" t="s">
         <v>49</v>
       </c>
@@ -24365,7 +24371,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" hidden="1">
       <c r="A256" t="s">
         <v>49</v>
       </c>
@@ -24394,7 +24400,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" hidden="1">
       <c r="A257" t="s">
         <v>49</v>
       </c>
@@ -24423,7 +24429,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" hidden="1">
       <c r="A258" t="s">
         <v>49</v>
       </c>
@@ -24452,7 +24458,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" hidden="1">
       <c r="A259" t="s">
         <v>49</v>
       </c>
@@ -24481,7 +24487,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" hidden="1">
       <c r="A260" t="s">
         <v>49</v>
       </c>
@@ -24513,7 +24519,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" hidden="1">
       <c r="A261" t="s">
         <v>49</v>
       </c>
@@ -24545,7 +24551,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" hidden="1">
       <c r="A262" t="s">
         <v>49</v>
       </c>
@@ -24580,7 +24586,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" hidden="1">
       <c r="A263" t="s">
         <v>49</v>
       </c>
@@ -24612,7 +24618,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" hidden="1">
       <c r="A264" t="s">
         <v>49</v>
       </c>
@@ -24647,7 +24653,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" hidden="1">
       <c r="A265" t="s">
         <v>49</v>
       </c>
@@ -24676,7 +24682,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" hidden="1">
       <c r="A266" t="s">
         <v>49</v>
       </c>
@@ -24708,7 +24714,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" hidden="1">
       <c r="A267" t="s">
         <v>49</v>
       </c>
@@ -24740,7 +24746,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" hidden="1">
       <c r="A268" t="s">
         <v>49</v>
       </c>
@@ -24772,7 +24778,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" hidden="1">
       <c r="A269" t="s">
         <v>49</v>
       </c>
@@ -24804,7 +24810,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" hidden="1">
       <c r="A270" t="s">
         <v>49</v>
       </c>
@@ -24833,7 +24839,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" hidden="1">
       <c r="A271" t="s">
         <v>49</v>
       </c>
@@ -24862,7 +24868,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" hidden="1">
       <c r="A272" t="s">
         <v>49</v>
       </c>
@@ -24891,7 +24897,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" hidden="1">
       <c r="A273" t="s">
         <v>49</v>
       </c>
@@ -24923,7 +24929,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" hidden="1">
       <c r="A274" t="s">
         <v>49</v>
       </c>
@@ -24952,7 +24958,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" hidden="1">
       <c r="A275" t="s">
         <v>49</v>
       </c>
@@ -24984,7 +24990,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" hidden="1">
       <c r="A276" t="s">
         <v>49</v>
       </c>
@@ -25016,7 +25022,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" hidden="1">
       <c r="A277" t="s">
         <v>49</v>
       </c>
@@ -25045,7 +25051,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" hidden="1">
       <c r="A278" t="s">
         <v>49</v>
       </c>
@@ -25080,7 +25086,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" hidden="1">
       <c r="A279" t="s">
         <v>49</v>
       </c>
@@ -25112,7 +25118,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" hidden="1">
       <c r="A280" t="s">
         <v>49</v>
       </c>
@@ -25141,7 +25147,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" hidden="1">
       <c r="A281" t="s">
         <v>49</v>
       </c>
@@ -25176,7 +25182,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" hidden="1">
       <c r="A282" t="s">
         <v>49</v>
       </c>
@@ -25208,7 +25214,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" hidden="1">
       <c r="A283" t="s">
         <v>49</v>
       </c>
@@ -25243,7 +25249,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" hidden="1">
       <c r="A284" t="s">
         <v>49</v>
       </c>
@@ -25278,7 +25284,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" hidden="1">
       <c r="A285" t="s">
         <v>49</v>
       </c>
@@ -25310,7 +25316,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" hidden="1">
       <c r="A286" t="s">
         <v>49</v>
       </c>
@@ -25339,7 +25345,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" hidden="1">
       <c r="A287" t="s">
         <v>49</v>
       </c>
@@ -25368,7 +25374,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" hidden="1">
       <c r="A288" t="s">
         <v>49</v>
       </c>
@@ -25397,7 +25403,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" hidden="1">
       <c r="A289" t="s">
         <v>49</v>
       </c>
@@ -25426,7 +25432,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" hidden="1">
       <c r="A290" t="s">
         <v>49</v>
       </c>
@@ -25455,7 +25461,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" hidden="1">
       <c r="A291" t="s">
         <v>49</v>
       </c>
@@ -25487,7 +25493,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" hidden="1">
       <c r="A292" t="s">
         <v>49</v>
       </c>
@@ -25516,7 +25522,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" hidden="1">
       <c r="A293" t="s">
         <v>49</v>
       </c>
@@ -25545,7 +25551,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" hidden="1">
       <c r="A294" t="s">
         <v>49</v>
       </c>
@@ -25574,7 +25580,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" hidden="1">
       <c r="A295" t="s">
         <v>49</v>
       </c>
@@ -25603,7 +25609,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" hidden="1">
       <c r="A296" t="s">
         <v>49</v>
       </c>
@@ -25632,7 +25638,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" hidden="1">
       <c r="A297" t="s">
         <v>49</v>
       </c>
@@ -25661,7 +25667,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" hidden="1">
       <c r="A298" t="s">
         <v>49</v>
       </c>
@@ -25690,7 +25696,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" hidden="1">
       <c r="A299" t="s">
         <v>49</v>
       </c>
@@ -25725,7 +25731,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" hidden="1">
       <c r="A300" t="s">
         <v>49</v>
       </c>
@@ -25757,7 +25763,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" hidden="1">
       <c r="A301" t="s">
         <v>49</v>
       </c>
@@ -25789,7 +25795,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" hidden="1">
       <c r="A302" t="s">
         <v>49</v>
       </c>
@@ -25818,7 +25824,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" hidden="1">
       <c r="A303" t="s">
         <v>49</v>
       </c>
@@ -25850,7 +25856,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" hidden="1">
       <c r="A304" t="s">
         <v>49</v>
       </c>
@@ -25879,7 +25885,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" hidden="1">
       <c r="A305" t="s">
         <v>49</v>
       </c>
@@ -25911,7 +25917,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" hidden="1">
       <c r="A306" t="s">
         <v>49</v>
       </c>
@@ -25946,7 +25952,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" hidden="1">
       <c r="A307" t="s">
         <v>49</v>
       </c>
@@ -25978,7 +25984,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" hidden="1">
       <c r="A308" t="s">
         <v>49</v>
       </c>
@@ -26010,7 +26016,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" hidden="1">
       <c r="A309" t="s">
         <v>49</v>
       </c>
@@ -26045,7 +26051,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" hidden="1">
       <c r="A310" t="s">
         <v>49</v>
       </c>
@@ -26074,7 +26080,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" hidden="1">
       <c r="A311" t="s">
         <v>49</v>
       </c>
@@ -26106,7 +26112,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" hidden="1">
       <c r="A312" t="s">
         <v>49</v>
       </c>
@@ -26138,7 +26144,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" hidden="1">
       <c r="A313" t="s">
         <v>49</v>
       </c>
@@ -26170,7 +26176,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" hidden="1">
       <c r="A314" t="s">
         <v>49</v>
       </c>
@@ -26202,7 +26208,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" hidden="1">
       <c r="A315" t="s">
         <v>49</v>
       </c>
@@ -26237,7 +26243,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" hidden="1">
       <c r="A316" t="s">
         <v>49</v>
       </c>
@@ -26269,7 +26275,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" hidden="1">
       <c r="A317" t="s">
         <v>49</v>
       </c>
@@ -26304,7 +26310,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" hidden="1">
       <c r="A318" t="s">
         <v>49</v>
       </c>
@@ -26339,7 +26345,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" hidden="1">
       <c r="A319" t="s">
         <v>49</v>
       </c>
@@ -26371,7 +26377,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" hidden="1">
       <c r="A320" t="s">
         <v>49</v>
       </c>
@@ -26403,7 +26409,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" hidden="1">
       <c r="A321" t="s">
         <v>49</v>
       </c>
@@ -26432,7 +26438,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" hidden="1">
       <c r="A322" t="s">
         <v>49</v>
       </c>
@@ -26461,7 +26467,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" hidden="1">
       <c r="A323" t="s">
         <v>49</v>
       </c>
@@ -26490,7 +26496,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" hidden="1">
       <c r="A324" t="s">
         <v>49</v>
       </c>
@@ -26522,7 +26528,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" hidden="1">
       <c r="A325" t="s">
         <v>49</v>
       </c>
@@ -26554,7 +26560,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" hidden="1">
       <c r="A326" t="s">
         <v>49</v>
       </c>
@@ -26589,7 +26595,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" hidden="1">
       <c r="A327" t="s">
         <v>49</v>
       </c>
@@ -26621,7 +26627,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" hidden="1">
       <c r="A328" t="s">
         <v>49</v>
       </c>
@@ -26650,7 +26656,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" hidden="1">
       <c r="A329" t="s">
         <v>49</v>
       </c>
@@ -26682,7 +26688,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" hidden="1">
       <c r="A330" t="s">
         <v>49</v>
       </c>
@@ -26711,7 +26717,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" hidden="1">
       <c r="A331" t="s">
         <v>49</v>
       </c>
@@ -26740,7 +26746,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" hidden="1">
       <c r="A332" t="s">
         <v>49</v>
       </c>
@@ -26772,7 +26778,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" hidden="1">
       <c r="A333" t="s">
         <v>49</v>
       </c>
@@ -26804,7 +26810,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" hidden="1">
       <c r="A334" t="s">
         <v>49</v>
       </c>
@@ -26836,7 +26842,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" hidden="1">
       <c r="A335" t="s">
         <v>49</v>
       </c>
@@ -26868,7 +26874,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" hidden="1">
       <c r="A336" t="s">
         <v>49</v>
       </c>
@@ -26900,7 +26906,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" hidden="1">
       <c r="A337" t="s">
         <v>49</v>
       </c>
@@ -26932,7 +26938,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" hidden="1">
       <c r="A338" t="s">
         <v>49</v>
       </c>
@@ -26964,7 +26970,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" hidden="1">
       <c r="A339" t="s">
         <v>49</v>
       </c>
@@ -26996,7 +27002,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" hidden="1">
       <c r="A340" t="s">
         <v>49</v>
       </c>
@@ -27025,7 +27031,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" hidden="1">
       <c r="A341" t="s">
         <v>49</v>
       </c>
@@ -27054,7 +27060,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" hidden="1">
       <c r="A342" t="s">
         <v>49</v>
       </c>
@@ -27083,7 +27089,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" hidden="1">
       <c r="A343" t="s">
         <v>49</v>
       </c>
@@ -27112,7 +27118,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" hidden="1">
       <c r="A344" t="s">
         <v>49</v>
       </c>
@@ -27144,7 +27150,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" hidden="1">
       <c r="A345" t="s">
         <v>49</v>
       </c>
@@ -27176,7 +27182,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" hidden="1">
       <c r="A346" t="s">
         <v>49</v>
       </c>
@@ -27211,7 +27217,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" hidden="1">
       <c r="A347" t="s">
         <v>49</v>
       </c>
@@ -27243,7 +27249,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" hidden="1">
       <c r="A348" t="s">
         <v>49</v>
       </c>
@@ -27275,7 +27281,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" hidden="1">
       <c r="A349" t="s">
         <v>49</v>
       </c>
@@ -27304,7 +27310,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" hidden="1">
       <c r="A350" t="s">
         <v>49</v>
       </c>
@@ -27336,7 +27342,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" hidden="1">
       <c r="A351" t="s">
         <v>49</v>
       </c>
@@ -27368,7 +27374,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" hidden="1">
       <c r="A352" t="s">
         <v>49</v>
       </c>
@@ -27397,7 +27403,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" hidden="1">
       <c r="A353" t="s">
         <v>49</v>
       </c>
@@ -27429,7 +27435,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" hidden="1">
       <c r="A354" t="s">
         <v>49</v>
       </c>
@@ -27461,7 +27467,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" hidden="1">
       <c r="A355" t="s">
         <v>49</v>
       </c>
@@ -27493,7 +27499,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" hidden="1">
       <c r="A356" t="s">
         <v>49</v>
       </c>
@@ -27525,7 +27531,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" hidden="1">
       <c r="A357" t="s">
         <v>49</v>
       </c>
@@ -27557,7 +27563,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" hidden="1">
       <c r="A358" t="s">
         <v>49</v>
       </c>
@@ -27589,7 +27595,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" hidden="1">
       <c r="A359" t="s">
         <v>49</v>
       </c>
@@ -27621,7 +27627,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" hidden="1">
       <c r="A360" t="s">
         <v>49</v>
       </c>
@@ -27653,7 +27659,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" hidden="1">
       <c r="A361" t="s">
         <v>49</v>
       </c>
@@ -27685,7 +27691,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" hidden="1">
       <c r="A362" t="s">
         <v>49</v>
       </c>
@@ -27714,7 +27720,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" hidden="1">
       <c r="A363" t="s">
         <v>49</v>
       </c>
@@ -27743,7 +27749,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" hidden="1">
       <c r="A364" t="s">
         <v>49</v>
       </c>
@@ -27772,7 +27778,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" hidden="1">
       <c r="A365" t="s">
         <v>49</v>
       </c>
@@ -27807,7 +27813,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" hidden="1">
       <c r="A366" t="s">
         <v>49</v>
       </c>
@@ -27839,7 +27845,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" hidden="1">
       <c r="A367" t="s">
         <v>49</v>
       </c>
@@ -27874,7 +27880,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" hidden="1">
       <c r="A368" t="s">
         <v>49</v>
       </c>
@@ -27906,7 +27912,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" hidden="1">
       <c r="A369" t="s">
         <v>49</v>
       </c>
@@ -27935,7 +27941,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" hidden="1">
       <c r="A370" t="s">
         <v>49</v>
       </c>
@@ -27967,7 +27973,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" hidden="1">
       <c r="A371" t="s">
         <v>49</v>
       </c>
@@ -27996,7 +28002,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" hidden="1">
       <c r="A372" t="s">
         <v>49</v>
       </c>
@@ -28028,7 +28034,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" hidden="1">
       <c r="A373" t="s">
         <v>49</v>
       </c>
@@ -28057,7 +28063,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" hidden="1">
       <c r="A374" t="s">
         <v>49</v>
       </c>
@@ -28089,7 +28095,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" hidden="1">
       <c r="A375" t="s">
         <v>49</v>
       </c>
@@ -28121,7 +28127,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" hidden="1">
       <c r="A376" t="s">
         <v>49</v>
       </c>
@@ -28156,7 +28162,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" hidden="1">
       <c r="A377" t="s">
         <v>49</v>
       </c>
@@ -28188,7 +28194,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" hidden="1">
       <c r="A378" t="s">
         <v>49</v>
       </c>
@@ -28220,7 +28226,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" hidden="1">
       <c r="A379" t="s">
         <v>49</v>
       </c>
@@ -28249,7 +28255,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" hidden="1">
       <c r="A380" t="s">
         <v>49</v>
       </c>
@@ -28284,7 +28290,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" hidden="1">
       <c r="A381" t="s">
         <v>49</v>
       </c>
@@ -28316,7 +28322,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" hidden="1">
       <c r="A382" t="s">
         <v>49</v>
       </c>
@@ -28348,7 +28354,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" hidden="1">
       <c r="A383" t="s">
         <v>49</v>
       </c>
@@ -28380,7 +28386,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" hidden="1">
       <c r="A384" t="s">
         <v>49</v>
       </c>
@@ -28409,7 +28415,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" hidden="1">
       <c r="A385" t="s">
         <v>49</v>
       </c>
@@ -28441,7 +28447,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" hidden="1">
       <c r="A386" t="s">
         <v>49</v>
       </c>
@@ -28473,7 +28479,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" hidden="1">
       <c r="A387" t="s">
         <v>49</v>
       </c>
@@ -28505,7 +28511,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" hidden="1">
       <c r="A388" t="s">
         <v>49</v>
       </c>
@@ -28534,7 +28540,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" hidden="1">
       <c r="A389" t="s">
         <v>49</v>
       </c>
@@ -28569,7 +28575,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" hidden="1">
       <c r="A390" t="s">
         <v>49</v>
       </c>
@@ -28601,7 +28607,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" hidden="1">
       <c r="A391" t="s">
         <v>49</v>
       </c>
@@ -28633,7 +28639,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" hidden="1">
       <c r="A392" t="s">
         <v>49</v>
       </c>
@@ -28662,7 +28668,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" hidden="1">
       <c r="A393" t="s">
         <v>49</v>
       </c>
@@ -28691,7 +28697,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" hidden="1">
       <c r="A394" t="s">
         <v>49</v>
       </c>
@@ -28726,7 +28732,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" hidden="1">
       <c r="A395" t="s">
         <v>49</v>
       </c>
@@ -28758,7 +28764,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" hidden="1">
       <c r="A396" t="s">
         <v>49</v>
       </c>
@@ -28790,7 +28796,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" hidden="1">
       <c r="A397" t="s">
         <v>49</v>
       </c>
@@ -28822,7 +28828,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" hidden="1">
       <c r="A398" t="s">
         <v>49</v>
       </c>
@@ -28851,7 +28857,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" hidden="1">
       <c r="A399" t="s">
         <v>49</v>
       </c>
@@ -28883,7 +28889,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" hidden="1">
       <c r="A400" t="s">
         <v>49</v>
       </c>
@@ -28915,7 +28921,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" hidden="1">
       <c r="A401" t="s">
         <v>49</v>
       </c>
@@ -28944,7 +28950,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" hidden="1">
       <c r="A402" t="s">
         <v>49</v>
       </c>
@@ -28976,7 +28982,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" hidden="1">
       <c r="A403" t="s">
         <v>49</v>
       </c>
@@ -29008,7 +29014,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" hidden="1">
       <c r="A404" t="s">
         <v>49</v>
       </c>
@@ -29040,7 +29046,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" hidden="1">
       <c r="A405" t="s">
         <v>49</v>
       </c>
@@ -29072,7 +29078,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" hidden="1">
       <c r="A406" t="s">
         <v>49</v>
       </c>
@@ -29104,7 +29110,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" hidden="1">
       <c r="A407" t="s">
         <v>49</v>
       </c>
@@ -29136,7 +29142,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" hidden="1">
       <c r="A408" t="s">
         <v>49</v>
       </c>
@@ -29171,7 +29177,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" hidden="1">
       <c r="A409" t="s">
         <v>49</v>
       </c>
@@ -29203,7 +29209,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" hidden="1">
       <c r="A410" t="s">
         <v>49</v>
       </c>
@@ -29238,7 +29244,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" hidden="1">
       <c r="A411" t="s">
         <v>49</v>
       </c>
@@ -29270,7 +29276,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" hidden="1">
       <c r="A412" t="s">
         <v>49</v>
       </c>
@@ -29299,7 +29305,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" hidden="1">
       <c r="A413" t="s">
         <v>49</v>
       </c>
@@ -29328,7 +29334,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" hidden="1">
       <c r="A414" t="s">
         <v>49</v>
       </c>
@@ -29363,7 +29369,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" hidden="1">
       <c r="A415" t="s">
         <v>49</v>
       </c>
@@ -29395,7 +29401,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" hidden="1">
       <c r="A416" t="s">
         <v>49</v>
       </c>
@@ -29424,7 +29430,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" hidden="1">
       <c r="A417" t="s">
         <v>49</v>
       </c>
@@ -29453,7 +29459,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" hidden="1">
       <c r="A418" t="s">
         <v>49</v>
       </c>
@@ -29485,7 +29491,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" hidden="1">
       <c r="A419" t="s">
         <v>49</v>
       </c>
@@ -29514,7 +29520,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" hidden="1">
       <c r="A420" t="s">
         <v>49</v>
       </c>
@@ -29549,7 +29555,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" hidden="1">
       <c r="A421" t="s">
         <v>49</v>
       </c>
@@ -29578,7 +29584,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" hidden="1">
       <c r="A422" t="s">
         <v>49</v>
       </c>
@@ -29610,7 +29616,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" hidden="1">
       <c r="A423" t="s">
         <v>49</v>
       </c>
@@ -29645,7 +29651,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" hidden="1">
       <c r="A424" t="s">
         <v>49</v>
       </c>
@@ -29680,7 +29686,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" hidden="1">
       <c r="A425" t="s">
         <v>49</v>
       </c>
@@ -29715,7 +29721,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" hidden="1">
       <c r="A426" t="s">
         <v>49</v>
       </c>
@@ -29747,7 +29753,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" hidden="1">
       <c r="A427" t="s">
         <v>49</v>
       </c>
@@ -29782,7 +29788,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" hidden="1">
       <c r="A428" t="s">
         <v>49</v>
       </c>
@@ -29817,7 +29823,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" hidden="1">
       <c r="A429" t="s">
         <v>49</v>
       </c>
@@ -29849,7 +29855,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" hidden="1">
       <c r="A430" t="s">
         <v>49</v>
       </c>
@@ -29878,7 +29884,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" hidden="1">
       <c r="A431" t="s">
         <v>49</v>
       </c>
@@ -29910,7 +29916,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" hidden="1">
       <c r="A432" t="s">
         <v>49</v>
       </c>
@@ -29942,7 +29948,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" hidden="1">
       <c r="A433" t="s">
         <v>49</v>
       </c>
@@ -29971,7 +29977,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" hidden="1">
       <c r="A434" t="s">
         <v>49</v>
       </c>
@@ -30003,7 +30009,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" hidden="1">
       <c r="A435" t="s">
         <v>49</v>
       </c>
@@ -30038,7 +30044,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" hidden="1">
       <c r="A436" t="s">
         <v>49</v>
       </c>
@@ -30070,7 +30076,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" hidden="1">
       <c r="A437" t="s">
         <v>49</v>
       </c>
@@ -30099,7 +30105,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" hidden="1">
       <c r="A438" t="s">
         <v>49</v>
       </c>
@@ -30131,7 +30137,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" hidden="1">
       <c r="A439" t="s">
         <v>49</v>
       </c>
@@ -30166,7 +30172,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" hidden="1">
       <c r="A440" t="s">
         <v>49</v>
       </c>
@@ -30198,7 +30204,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" hidden="1">
       <c r="A441" t="s">
         <v>49</v>
       </c>
@@ -30227,7 +30233,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" hidden="1">
       <c r="A442" t="s">
         <v>49</v>
       </c>
@@ -30256,7 +30262,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" hidden="1">
       <c r="A443" t="s">
         <v>49</v>
       </c>
@@ -30288,7 +30294,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" hidden="1">
       <c r="A444" t="s">
         <v>49</v>
       </c>
@@ -30320,7 +30326,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" hidden="1">
       <c r="A445" t="s">
         <v>49</v>
       </c>
@@ -30349,7 +30355,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" hidden="1">
       <c r="A446" t="s">
         <v>49</v>
       </c>
@@ -30381,7 +30387,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" hidden="1">
       <c r="A447" t="s">
         <v>49</v>
       </c>
@@ -30410,7 +30416,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" hidden="1">
       <c r="A448" t="s">
         <v>49</v>
       </c>
@@ -30442,7 +30448,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" hidden="1">
       <c r="A449" t="s">
         <v>49</v>
       </c>
@@ -30471,7 +30477,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" hidden="1">
       <c r="A450" t="s">
         <v>49</v>
       </c>
@@ -30500,7 +30506,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" hidden="1">
       <c r="A451" t="s">
         <v>49</v>
       </c>
@@ -30529,7 +30535,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" hidden="1">
       <c r="A452" t="s">
         <v>49</v>
       </c>
@@ -30561,7 +30567,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" hidden="1">
       <c r="A453" t="s">
         <v>49</v>
       </c>
@@ -30596,7 +30602,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" hidden="1">
       <c r="A454" t="s">
         <v>49</v>
       </c>
@@ -30628,7 +30634,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" hidden="1">
       <c r="A455" t="s">
         <v>49</v>
       </c>
@@ -30663,7 +30669,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" hidden="1">
       <c r="A456" t="s">
         <v>49</v>
       </c>
@@ -30695,7 +30701,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" hidden="1">
       <c r="A457" t="s">
         <v>49</v>
       </c>
@@ -30730,7 +30736,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" hidden="1">
       <c r="A458" t="s">
         <v>49</v>
       </c>
@@ -30762,7 +30768,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" hidden="1">
       <c r="A459" t="s">
         <v>49</v>
       </c>
@@ -30794,7 +30800,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" hidden="1">
       <c r="A460" t="s">
         <v>49</v>
       </c>
@@ -30826,7 +30832,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" hidden="1">
       <c r="A461" t="s">
         <v>49</v>
       </c>
@@ -30858,7 +30864,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" hidden="1">
       <c r="A462" t="s">
         <v>49</v>
       </c>
@@ -30890,7 +30896,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" hidden="1">
       <c r="A463" t="s">
         <v>49</v>
       </c>
@@ -30922,7 +30928,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" hidden="1">
       <c r="A464" t="s">
         <v>49</v>
       </c>
@@ -30954,7 +30960,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" hidden="1">
       <c r="A465" t="s">
         <v>49</v>
       </c>
@@ -30986,7 +30992,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" hidden="1">
       <c r="A466" t="s">
         <v>49</v>
       </c>
@@ -31018,7 +31024,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" hidden="1">
       <c r="A467" t="s">
         <v>49</v>
       </c>
@@ -31050,7 +31056,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" hidden="1">
       <c r="A468" t="s">
         <v>49</v>
       </c>
@@ -31082,7 +31088,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" hidden="1">
       <c r="A469" t="s">
         <v>49</v>
       </c>
@@ -31114,7 +31120,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" hidden="1">
       <c r="A470" t="s">
         <v>49</v>
       </c>
@@ -31146,7 +31152,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" hidden="1">
       <c r="A471" t="s">
         <v>49</v>
       </c>
@@ -31178,7 +31184,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" hidden="1">
       <c r="A472" t="s">
         <v>49</v>
       </c>
@@ -31210,7 +31216,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" hidden="1">
       <c r="A473" t="s">
         <v>49</v>
       </c>
@@ -31245,7 +31251,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" hidden="1">
       <c r="A474" t="s">
         <v>49</v>
       </c>
@@ -31277,7 +31283,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" hidden="1">
       <c r="A475" t="s">
         <v>49</v>
       </c>
@@ -31306,7 +31312,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" hidden="1">
       <c r="A476" t="s">
         <v>49</v>
       </c>
@@ -31338,7 +31344,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" hidden="1">
       <c r="A477" t="s">
         <v>49</v>
       </c>
@@ -31367,7 +31373,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" hidden="1">
       <c r="A478" t="s">
         <v>49</v>
       </c>
@@ -31399,7 +31405,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" hidden="1">
       <c r="A479" t="s">
         <v>49</v>
       </c>
@@ -31428,7 +31434,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="480" spans="1:11">
+    <row r="480" spans="1:11" hidden="1">
       <c r="A480" t="s">
         <v>49</v>
       </c>
@@ -31460,7 +31466,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" hidden="1">
       <c r="A481" t="s">
         <v>49</v>
       </c>
@@ -31492,7 +31498,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" hidden="1">
       <c r="A482" t="s">
         <v>49</v>
       </c>
@@ -31524,7 +31530,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" spans="1:11" hidden="1">
       <c r="A483" t="s">
         <v>49</v>
       </c>
@@ -31556,7 +31562,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" hidden="1">
       <c r="A484" t="s">
         <v>49</v>
       </c>
@@ -31588,7 +31594,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" spans="1:11" hidden="1">
       <c r="A485" t="s">
         <v>49</v>
       </c>
@@ -31620,7 +31626,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" hidden="1">
       <c r="A486" t="s">
         <v>49</v>
       </c>
@@ -31652,7 +31658,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" spans="1:11" hidden="1">
       <c r="A487" t="s">
         <v>49</v>
       </c>
@@ -31687,7 +31693,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" spans="1:11" hidden="1">
       <c r="A488" t="s">
         <v>49</v>
       </c>
@@ -31719,7 +31725,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" hidden="1">
       <c r="A489" t="s">
         <v>49</v>
       </c>
@@ -31751,7 +31757,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" hidden="1">
       <c r="A490" t="s">
         <v>49</v>
       </c>
@@ -31786,7 +31792,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" hidden="1">
       <c r="A491" t="s">
         <v>49</v>
       </c>
@@ -31818,7 +31824,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" spans="1:11" hidden="1">
       <c r="A492" t="s">
         <v>49</v>
       </c>
@@ -31850,7 +31856,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" hidden="1">
       <c r="A493" t="s">
         <v>49</v>
       </c>
@@ -31879,7 +31885,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" hidden="1">
       <c r="A494" t="s">
         <v>49</v>
       </c>
@@ -31911,7 +31917,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" hidden="1">
       <c r="A495" t="s">
         <v>49</v>
       </c>
@@ -31943,7 +31949,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" hidden="1">
       <c r="A496" t="s">
         <v>49</v>
       </c>
@@ -31972,7 +31978,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" hidden="1">
       <c r="A497" t="s">
         <v>49</v>
       </c>
@@ -32001,7 +32007,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" spans="1:11" hidden="1">
       <c r="A498" t="s">
         <v>49</v>
       </c>
@@ -32033,7 +32039,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" hidden="1">
       <c r="A499" t="s">
         <v>49</v>
       </c>
@@ -32065,7 +32071,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="500" spans="1:11">
+    <row r="500" spans="1:11" hidden="1">
       <c r="A500" t="s">
         <v>49</v>
       </c>
@@ -32100,7 +32106,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" spans="1:11" hidden="1">
       <c r="A501" t="s">
         <v>49</v>
       </c>
@@ -32132,7 +32138,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" spans="1:11" hidden="1">
       <c r="A502" t="s">
         <v>49</v>
       </c>
@@ -32167,7 +32173,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="503" spans="1:11">
+    <row r="503" spans="1:11" hidden="1">
       <c r="A503" t="s">
         <v>49</v>
       </c>
@@ -32199,7 +32205,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="504" spans="1:11">
+    <row r="504" spans="1:11" hidden="1">
       <c r="A504" t="s">
         <v>49</v>
       </c>
@@ -32231,7 +32237,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="505" spans="1:11">
+    <row r="505" spans="1:11" hidden="1">
       <c r="A505" t="s">
         <v>49</v>
       </c>
@@ -32263,7 +32269,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" spans="1:11" hidden="1">
       <c r="A506" t="s">
         <v>49</v>
       </c>
@@ -32295,7 +32301,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="507" spans="1:11">
+    <row r="507" spans="1:11" hidden="1">
       <c r="A507" t="s">
         <v>49</v>
       </c>
@@ -32324,7 +32330,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="508" spans="1:11">
+    <row r="508" spans="1:11" hidden="1">
       <c r="A508" t="s">
         <v>49</v>
       </c>
@@ -32353,7 +32359,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" spans="1:11" hidden="1">
       <c r="A509" t="s">
         <v>49</v>
       </c>
@@ -32382,7 +32388,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="510" spans="1:11">
+    <row r="510" spans="1:11" hidden="1">
       <c r="A510" t="s">
         <v>49</v>
       </c>
@@ -32414,7 +32420,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="511" spans="1:11">
+    <row r="511" spans="1:11" hidden="1">
       <c r="A511" t="s">
         <v>49</v>
       </c>
@@ -32446,7 +32452,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="512" spans="1:11">
+    <row r="512" spans="1:11" hidden="1">
       <c r="A512" t="s">
         <v>49</v>
       </c>
@@ -32478,7 +32484,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="513" spans="1:11">
+    <row r="513" spans="1:11" hidden="1">
       <c r="A513" t="s">
         <v>49</v>
       </c>
@@ -32510,7 +32516,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="514" spans="1:11">
+    <row r="514" spans="1:11" hidden="1">
       <c r="A514" t="s">
         <v>49</v>
       </c>
@@ -32542,7 +32548,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:11" hidden="1">
       <c r="A515" t="s">
         <v>49</v>
       </c>
@@ -32574,7 +32580,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="516" spans="1:11">
+    <row r="516" spans="1:11" hidden="1">
       <c r="A516" t="s">
         <v>49</v>
       </c>
@@ -32603,7 +32609,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="517" spans="1:11">
+    <row r="517" spans="1:11" hidden="1">
       <c r="A517" t="s">
         <v>49</v>
       </c>
@@ -32632,7 +32638,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:11" hidden="1">
       <c r="A518" t="s">
         <v>49</v>
       </c>
@@ -32661,7 +32667,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" spans="1:11" hidden="1">
       <c r="A519" t="s">
         <v>49</v>
       </c>
@@ -32690,7 +32696,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="520" spans="1:11">
+    <row r="520" spans="1:11" hidden="1">
       <c r="A520" t="s">
         <v>49</v>
       </c>
@@ -32719,7 +32725,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="521" spans="1:11">
+    <row r="521" spans="1:11" hidden="1">
       <c r="A521" t="s">
         <v>49</v>
       </c>
@@ -32754,7 +32760,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="522" spans="1:11">
+    <row r="522" spans="1:11" hidden="1">
       <c r="A522" t="s">
         <v>49</v>
       </c>
@@ -32783,7 +32789,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="523" spans="1:11">
+    <row r="523" spans="1:11" hidden="1">
       <c r="A523" t="s">
         <v>49</v>
       </c>
@@ -32812,7 +32818,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="524" spans="1:11">
+    <row r="524" spans="1:11" hidden="1">
       <c r="A524" t="s">
         <v>49</v>
       </c>
@@ -32841,7 +32847,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="525" spans="1:11">
+    <row r="525" spans="1:11" hidden="1">
       <c r="A525" t="s">
         <v>49</v>
       </c>
@@ -32873,7 +32879,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="526" spans="1:11">
+    <row r="526" spans="1:11" hidden="1">
       <c r="A526" t="s">
         <v>49</v>
       </c>
@@ -32905,7 +32911,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="527" spans="1:11">
+    <row r="527" spans="1:11" hidden="1">
       <c r="A527" t="s">
         <v>49</v>
       </c>
@@ -32934,7 +32940,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="528" spans="1:11">
+    <row r="528" spans="1:11" hidden="1">
       <c r="A528" t="s">
         <v>49</v>
       </c>
@@ -32966,7 +32972,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="529" spans="1:11">
+    <row r="529" spans="1:11" hidden="1">
       <c r="A529" t="s">
         <v>49</v>
       </c>
@@ -32995,7 +33001,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="530" spans="1:11">
+    <row r="530" spans="1:11" hidden="1">
       <c r="A530" t="s">
         <v>49</v>
       </c>
@@ -33027,7 +33033,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" spans="1:11" hidden="1">
       <c r="A531" t="s">
         <v>49</v>
       </c>
@@ -33059,7 +33065,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="532" spans="1:11">
+    <row r="532" spans="1:11" hidden="1">
       <c r="A532" t="s">
         <v>49</v>
       </c>
@@ -33091,7 +33097,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="533" spans="1:11">
+    <row r="533" spans="1:11" hidden="1">
       <c r="A533" t="s">
         <v>49</v>
       </c>
@@ -33126,7 +33132,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:11" hidden="1">
       <c r="A534" t="s">
         <v>49</v>
       </c>
@@ -33158,7 +33164,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="535" spans="1:11">
+    <row r="535" spans="1:11" hidden="1">
       <c r="A535" t="s">
         <v>49</v>
       </c>
@@ -33193,7 +33199,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="536" spans="1:11">
+    <row r="536" spans="1:11" hidden="1">
       <c r="A536" t="s">
         <v>49</v>
       </c>
@@ -33228,7 +33234,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="537" spans="1:11">
+    <row r="537" spans="1:11" hidden="1">
       <c r="A537" t="s">
         <v>49</v>
       </c>
@@ -33260,7 +33266,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="538" spans="1:11">
+    <row r="538" spans="1:11" hidden="1">
       <c r="A538" t="s">
         <v>49</v>
       </c>
@@ -33295,7 +33301,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="539" spans="1:11">
+    <row r="539" spans="1:11" hidden="1">
       <c r="A539" t="s">
         <v>49</v>
       </c>
@@ -33327,7 +33333,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="540" spans="1:11">
+    <row r="540" spans="1:11" hidden="1">
       <c r="A540" t="s">
         <v>49</v>
       </c>
@@ -33362,7 +33368,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="541" spans="1:11">
+    <row r="541" spans="1:11" hidden="1">
       <c r="A541" t="s">
         <v>49</v>
       </c>
@@ -33394,7 +33400,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" hidden="1">
       <c r="A542" t="s">
         <v>49</v>
       </c>
@@ -33426,7 +33432,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="543" spans="1:11">
+    <row r="543" spans="1:11" hidden="1">
       <c r="A543" t="s">
         <v>49</v>
       </c>
@@ -33455,7 +33461,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="544" spans="1:11">
+    <row r="544" spans="1:11" hidden="1">
       <c r="A544" t="s">
         <v>49</v>
       </c>
@@ -33484,7 +33490,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="545" spans="1:11">
+    <row r="545" spans="1:11" hidden="1">
       <c r="A545" t="s">
         <v>49</v>
       </c>
@@ -33519,7 +33525,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" spans="1:11" hidden="1">
       <c r="A546" t="s">
         <v>49</v>
       </c>
@@ -33548,7 +33554,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="547" spans="1:11">
+    <row r="547" spans="1:11" hidden="1">
       <c r="A547" t="s">
         <v>49</v>
       </c>
@@ -33580,7 +33586,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="548" spans="1:11">
+    <row r="548" spans="1:11" hidden="1">
       <c r="A548" t="s">
         <v>49</v>
       </c>
@@ -33612,7 +33618,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="549" spans="1:11">
+    <row r="549" spans="1:11" hidden="1">
       <c r="A549" t="s">
         <v>49</v>
       </c>
@@ -33647,7 +33653,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="550" spans="1:11">
+    <row r="550" spans="1:11" hidden="1">
       <c r="A550" t="s">
         <v>49</v>
       </c>
@@ -33676,7 +33682,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" spans="1:11" hidden="1">
       <c r="A551" t="s">
         <v>49</v>
       </c>
@@ -33705,7 +33711,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:11" hidden="1">
       <c r="A552" t="s">
         <v>49</v>
       </c>
@@ -33734,7 +33740,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" spans="1:11" hidden="1">
       <c r="A553" t="s">
         <v>49</v>
       </c>
@@ -33763,7 +33769,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:11" hidden="1">
       <c r="A554" t="s">
         <v>49</v>
       </c>
@@ -33798,7 +33804,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="555" spans="1:11">
+    <row r="555" spans="1:11" hidden="1">
       <c r="A555" t="s">
         <v>49</v>
       </c>
@@ -33830,7 +33836,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="556" spans="1:11">
+    <row r="556" spans="1:11" hidden="1">
       <c r="A556" t="s">
         <v>49</v>
       </c>
@@ -33859,7 +33865,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="557" spans="1:11">
+    <row r="557" spans="1:11" hidden="1">
       <c r="A557" t="s">
         <v>49</v>
       </c>
@@ -33888,7 +33894,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="558" spans="1:11">
+    <row r="558" spans="1:11" hidden="1">
       <c r="A558" t="s">
         <v>49</v>
       </c>
@@ -33920,7 +33926,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="559" spans="1:11">
+    <row r="559" spans="1:11" hidden="1">
       <c r="A559" t="s">
         <v>49</v>
       </c>
@@ -33952,7 +33958,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="560" spans="1:11">
+    <row r="560" spans="1:11" hidden="1">
       <c r="A560" t="s">
         <v>49</v>
       </c>
@@ -33984,7 +33990,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="561" spans="1:11">
+    <row r="561" spans="1:11" hidden="1">
       <c r="A561" t="s">
         <v>49</v>
       </c>
@@ -34013,7 +34019,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="562" spans="1:11">
+    <row r="562" spans="1:11" hidden="1">
       <c r="A562" t="s">
         <v>49</v>
       </c>
@@ -34042,7 +34048,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="563" spans="1:11">
+    <row r="563" spans="1:11" hidden="1">
       <c r="A563" t="s">
         <v>49</v>
       </c>
@@ -34071,7 +34077,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="564" spans="1:11">
+    <row r="564" spans="1:11" hidden="1">
       <c r="A564" t="s">
         <v>49</v>
       </c>
@@ -34103,7 +34109,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="565" spans="1:11">
+    <row r="565" spans="1:11" hidden="1">
       <c r="A565" t="s">
         <v>49</v>
       </c>
@@ -34138,7 +34144,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="566" spans="1:11">
+    <row r="566" spans="1:11" hidden="1">
       <c r="A566" t="s">
         <v>49</v>
       </c>
@@ -34170,7 +34176,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="567" spans="1:11">
+    <row r="567" spans="1:11" hidden="1">
       <c r="A567" t="s">
         <v>49</v>
       </c>
@@ -34202,7 +34208,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="568" spans="1:11">
+    <row r="568" spans="1:11" hidden="1">
       <c r="A568" t="s">
         <v>49</v>
       </c>
@@ -34231,7 +34237,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="569" spans="1:11">
+    <row r="569" spans="1:11" hidden="1">
       <c r="A569" t="s">
         <v>49</v>
       </c>
@@ -34263,7 +34269,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="570" spans="1:11">
+    <row r="570" spans="1:11" hidden="1">
       <c r="A570" t="s">
         <v>49</v>
       </c>
@@ -34292,7 +34298,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="571" spans="1:11">
+    <row r="571" spans="1:11" hidden="1">
       <c r="A571" t="s">
         <v>49</v>
       </c>
@@ -34321,7 +34327,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="572" spans="1:11">
+    <row r="572" spans="1:11" hidden="1">
       <c r="A572" t="s">
         <v>49</v>
       </c>
@@ -34350,7 +34356,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="573" spans="1:11">
+    <row r="573" spans="1:11" hidden="1">
       <c r="A573" t="s">
         <v>49</v>
       </c>
@@ -34379,7 +34385,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="574" spans="1:11">
+    <row r="574" spans="1:11" hidden="1">
       <c r="A574" t="s">
         <v>49</v>
       </c>
@@ -34408,7 +34414,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="575" spans="1:11">
+    <row r="575" spans="1:11" hidden="1">
       <c r="A575" t="s">
         <v>49</v>
       </c>
@@ -34437,7 +34443,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="576" spans="1:11">
+    <row r="576" spans="1:11" hidden="1">
       <c r="A576" t="s">
         <v>49</v>
       </c>
@@ -34469,7 +34475,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="577" spans="1:11">
+    <row r="577" spans="1:11" hidden="1">
       <c r="A577" t="s">
         <v>49</v>
       </c>
@@ -34501,7 +34507,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="578" spans="1:11">
+    <row r="578" spans="1:11" hidden="1">
       <c r="A578" t="s">
         <v>49</v>
       </c>
@@ -34533,7 +34539,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" hidden="1">
       <c r="A579" t="s">
         <v>49</v>
       </c>
@@ -34565,7 +34571,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="580" spans="1:11">
+    <row r="580" spans="1:11" hidden="1">
       <c r="A580" t="s">
         <v>49</v>
       </c>
@@ -34594,7 +34600,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="581" spans="1:11">
+    <row r="581" spans="1:11" hidden="1">
       <c r="A581" t="s">
         <v>49</v>
       </c>
@@ -34623,7 +34629,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="582" spans="1:11">
+    <row r="582" spans="1:11" hidden="1">
       <c r="A582" t="s">
         <v>49</v>
       </c>
@@ -34652,7 +34658,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="583" spans="1:11">
+    <row r="583" spans="1:11" hidden="1">
       <c r="A583" t="s">
         <v>49</v>
       </c>
@@ -34681,7 +34687,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="584" spans="1:11">
+    <row r="584" spans="1:11" hidden="1">
       <c r="A584" t="s">
         <v>49</v>
       </c>
@@ -34710,7 +34716,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="585" spans="1:11">
+    <row r="585" spans="1:11" hidden="1">
       <c r="A585" t="s">
         <v>49</v>
       </c>
@@ -34739,7 +34745,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="586" spans="1:11">
+    <row r="586" spans="1:11" hidden="1">
       <c r="A586" t="s">
         <v>49</v>
       </c>
@@ -34768,7 +34774,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="587" spans="1:11">
+    <row r="587" spans="1:11" hidden="1">
       <c r="A587" t="s">
         <v>49</v>
       </c>
@@ -34800,7 +34806,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="588" spans="1:11">
+    <row r="588" spans="1:11" hidden="1">
       <c r="A588" t="s">
         <v>49</v>
       </c>
@@ -34832,7 +34838,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="589" spans="1:11">
+    <row r="589" spans="1:11" hidden="1">
       <c r="A589" t="s">
         <v>49</v>
       </c>
@@ -34864,7 +34870,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="590" spans="1:11">
+    <row r="590" spans="1:11" hidden="1">
       <c r="A590" t="s">
         <v>49</v>
       </c>
@@ -34896,7 +34902,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="591" spans="1:11">
+    <row r="591" spans="1:11" hidden="1">
       <c r="A591" t="s">
         <v>49</v>
       </c>
@@ -34928,7 +34934,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="592" spans="1:11">
+    <row r="592" spans="1:11" hidden="1">
       <c r="A592" t="s">
         <v>49</v>
       </c>
@@ -34960,7 +34966,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="593" spans="1:11">
+    <row r="593" spans="1:11" hidden="1">
       <c r="A593" t="s">
         <v>49</v>
       </c>
@@ -34992,7 +34998,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="594" spans="1:11">
+    <row r="594" spans="1:11" hidden="1">
       <c r="A594" t="s">
         <v>49</v>
       </c>
@@ -35021,7 +35027,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="595" spans="1:11">
+    <row r="595" spans="1:11" hidden="1">
       <c r="A595" t="s">
         <v>49</v>
       </c>
@@ -35050,7 +35056,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="596" spans="1:11">
+    <row r="596" spans="1:11" hidden="1">
       <c r="A596" t="s">
         <v>49</v>
       </c>
@@ -35082,7 +35088,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="597" spans="1:11">
+    <row r="597" spans="1:11" hidden="1">
       <c r="A597" t="s">
         <v>49</v>
       </c>
@@ -35114,7 +35120,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" spans="1:11" hidden="1">
       <c r="A598" t="s">
         <v>49</v>
       </c>
@@ -35149,7 +35155,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="599" spans="1:11">
+    <row r="599" spans="1:11" hidden="1">
       <c r="A599" t="s">
         <v>49</v>
       </c>
@@ -35184,7 +35190,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" spans="1:11" hidden="1">
       <c r="A600" t="s">
         <v>49</v>
       </c>
@@ -35216,7 +35222,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="601" spans="1:11">
+    <row r="601" spans="1:11" hidden="1">
       <c r="A601" t="s">
         <v>49</v>
       </c>
@@ -35248,7 +35254,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="602" spans="1:11">
+    <row r="602" spans="1:11" hidden="1">
       <c r="A602" t="s">
         <v>49</v>
       </c>
@@ -35280,7 +35286,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="603" spans="1:11">
+    <row r="603" spans="1:11" hidden="1">
       <c r="A603" t="s">
         <v>49</v>
       </c>
@@ -35309,7 +35315,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="604" spans="1:11">
+    <row r="604" spans="1:11" hidden="1">
       <c r="A604" t="s">
         <v>49</v>
       </c>
@@ -35338,7 +35344,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="605" spans="1:11">
+    <row r="605" spans="1:11" hidden="1">
       <c r="A605" t="s">
         <v>49</v>
       </c>
@@ -35373,7 +35379,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="606" spans="1:11">
+    <row r="606" spans="1:11" hidden="1">
       <c r="A606" t="s">
         <v>49</v>
       </c>
@@ -35408,7 +35414,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="607" spans="1:11">
+    <row r="607" spans="1:11" hidden="1">
       <c r="A607" t="s">
         <v>49</v>
       </c>
@@ -35440,7 +35446,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="608" spans="1:11">
+    <row r="608" spans="1:11" hidden="1">
       <c r="A608" t="s">
         <v>49</v>
       </c>
@@ -35469,7 +35475,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="609" spans="1:11">
+    <row r="609" spans="1:11" hidden="1">
       <c r="A609" t="s">
         <v>49</v>
       </c>
@@ -35501,7 +35507,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" spans="1:11" hidden="1">
       <c r="A610" t="s">
         <v>49</v>
       </c>
@@ -35530,7 +35536,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="611" spans="1:11">
+    <row r="611" spans="1:11" hidden="1">
       <c r="A611" t="s">
         <v>49</v>
       </c>
@@ -35565,7 +35571,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="612" spans="1:11">
+    <row r="612" spans="1:11" hidden="1">
       <c r="A612" t="s">
         <v>49</v>
       </c>
@@ -35597,7 +35603,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="613" spans="1:11">
+    <row r="613" spans="1:11" hidden="1">
       <c r="A613" t="s">
         <v>49</v>
       </c>
@@ -35626,7 +35632,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="614" spans="1:11">
+    <row r="614" spans="1:11" hidden="1">
       <c r="A614" t="s">
         <v>49</v>
       </c>
@@ -35655,7 +35661,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="615" spans="1:11">
+    <row r="615" spans="1:11" hidden="1">
       <c r="A615" t="s">
         <v>49</v>
       </c>
@@ -35684,7 +35690,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="616" spans="1:11">
+    <row r="616" spans="1:11" hidden="1">
       <c r="A616" t="s">
         <v>49</v>
       </c>
@@ -35713,7 +35719,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="617" spans="1:11">
+    <row r="617" spans="1:11" hidden="1">
       <c r="A617" t="s">
         <v>49</v>
       </c>
@@ -35745,7 +35751,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="618" spans="1:11">
+    <row r="618" spans="1:11" hidden="1">
       <c r="A618" t="s">
         <v>49</v>
       </c>
@@ -35777,7 +35783,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="619" spans="1:11">
+    <row r="619" spans="1:11" hidden="1">
       <c r="A619" t="s">
         <v>49</v>
       </c>
@@ -35809,7 +35815,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="620" spans="1:11">
+    <row r="620" spans="1:11" hidden="1">
       <c r="A620" t="s">
         <v>49</v>
       </c>
@@ -35841,7 +35847,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="621" spans="1:11">
+    <row r="621" spans="1:11" hidden="1">
       <c r="A621" t="s">
         <v>49</v>
       </c>
@@ -35870,7 +35876,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="622" spans="1:11">
+    <row r="622" spans="1:11" hidden="1">
       <c r="A622" t="s">
         <v>49</v>
       </c>
@@ -35902,7 +35908,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="623" spans="1:11">
+    <row r="623" spans="1:11" hidden="1">
       <c r="A623" t="s">
         <v>49</v>
       </c>
@@ -35934,7 +35940,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="624" spans="1:11">
+    <row r="624" spans="1:11" hidden="1">
       <c r="A624" t="s">
         <v>49</v>
       </c>
@@ -35966,7 +35972,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="625" spans="1:11">
+    <row r="625" spans="1:11" hidden="1">
       <c r="A625" t="s">
         <v>49</v>
       </c>
@@ -36001,7 +36007,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="626" spans="1:11">
+    <row r="626" spans="1:11" hidden="1">
       <c r="A626" t="s">
         <v>49</v>
       </c>
@@ -36033,7 +36039,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="627" spans="1:11">
+    <row r="627" spans="1:11" hidden="1">
       <c r="A627" t="s">
         <v>49</v>
       </c>
@@ -36065,7 +36071,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="628" spans="1:11">
+    <row r="628" spans="1:11" hidden="1">
       <c r="A628" t="s">
         <v>49</v>
       </c>
@@ -36097,7 +36103,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="629" spans="1:11">
+    <row r="629" spans="1:11" hidden="1">
       <c r="A629" t="s">
         <v>49</v>
       </c>
@@ -36129,7 +36135,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="630" spans="1:11">
+    <row r="630" spans="1:11" hidden="1">
       <c r="A630" t="s">
         <v>49</v>
       </c>
@@ -36158,7 +36164,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="631" spans="1:11">
+    <row r="631" spans="1:11" hidden="1">
       <c r="A631" t="s">
         <v>49</v>
       </c>
@@ -36190,7 +36196,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="632" spans="1:11">
+    <row r="632" spans="1:11" hidden="1">
       <c r="A632" t="s">
         <v>49</v>
       </c>
@@ -36222,7 +36228,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="633" spans="1:11">
+    <row r="633" spans="1:11" hidden="1">
       <c r="A633" t="s">
         <v>49</v>
       </c>
@@ -36254,7 +36260,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="634" spans="1:11">
+    <row r="634" spans="1:11" hidden="1">
       <c r="A634" t="s">
         <v>49</v>
       </c>
@@ -36286,7 +36292,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="635" spans="1:11">
+    <row r="635" spans="1:11" hidden="1">
       <c r="A635" t="s">
         <v>49</v>
       </c>
@@ -36318,7 +36324,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="636" spans="1:11">
+    <row r="636" spans="1:11" hidden="1">
       <c r="A636" t="s">
         <v>49</v>
       </c>
@@ -36347,7 +36353,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="637" spans="1:11">
+    <row r="637" spans="1:11" hidden="1">
       <c r="A637" t="s">
         <v>49</v>
       </c>
@@ -36379,7 +36385,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="638" spans="1:11">
+    <row r="638" spans="1:11" hidden="1">
       <c r="A638" t="s">
         <v>49</v>
       </c>
@@ -36411,7 +36417,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="639" spans="1:11">
+    <row r="639" spans="1:11" hidden="1">
       <c r="A639" t="s">
         <v>49</v>
       </c>
@@ -36440,7 +36446,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="640" spans="1:11">
+    <row r="640" spans="1:11" hidden="1">
       <c r="A640" t="s">
         <v>49</v>
       </c>
@@ -36472,7 +36478,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="641" spans="1:11">
+    <row r="641" spans="1:11" hidden="1">
       <c r="A641" t="s">
         <v>49</v>
       </c>
@@ -36501,7 +36507,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="642" spans="1:11">
+    <row r="642" spans="1:11" hidden="1">
       <c r="A642" t="s">
         <v>49</v>
       </c>
@@ -36536,7 +36542,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="643" spans="1:11">
+    <row r="643" spans="1:11" hidden="1">
       <c r="A643" t="s">
         <v>49</v>
       </c>
@@ -36568,7 +36574,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="644" spans="1:11">
+    <row r="644" spans="1:11" hidden="1">
       <c r="A644" t="s">
         <v>49</v>
       </c>
@@ -36597,7 +36603,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="645" spans="1:11">
+    <row r="645" spans="1:11" hidden="1">
       <c r="A645" t="s">
         <v>49</v>
       </c>
@@ -36626,7 +36632,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="646" spans="1:11">
+    <row r="646" spans="1:11" hidden="1">
       <c r="A646" t="s">
         <v>49</v>
       </c>
@@ -36661,7 +36667,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="647" spans="1:11">
+    <row r="647" spans="1:11" hidden="1">
       <c r="A647" t="s">
         <v>49</v>
       </c>
@@ -36696,7 +36702,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="648" spans="1:11">
+    <row r="648" spans="1:11" hidden="1">
       <c r="A648" t="s">
         <v>49</v>
       </c>
@@ -36728,7 +36734,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="649" spans="1:11">
+    <row r="649" spans="1:11" hidden="1">
       <c r="A649" t="s">
         <v>49</v>
       </c>
@@ -36760,7 +36766,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="650" spans="1:11">
+    <row r="650" spans="1:11" hidden="1">
       <c r="A650" t="s">
         <v>49</v>
       </c>
@@ -36792,7 +36798,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="651" spans="1:11">
+    <row r="651" spans="1:11" hidden="1">
       <c r="A651" t="s">
         <v>49</v>
       </c>
@@ -36827,7 +36833,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="652" spans="1:11">
+    <row r="652" spans="1:11" hidden="1">
       <c r="A652" t="s">
         <v>49</v>
       </c>
@@ -36859,7 +36865,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="653" spans="1:11">
+    <row r="653" spans="1:11" hidden="1">
       <c r="A653" t="s">
         <v>49</v>
       </c>
@@ -36888,7 +36894,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="654" spans="1:11">
+    <row r="654" spans="1:11" hidden="1">
       <c r="A654" t="s">
         <v>49</v>
       </c>
@@ -36917,7 +36923,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="655" spans="1:11">
+    <row r="655" spans="1:11" hidden="1">
       <c r="A655" t="s">
         <v>49</v>
       </c>
@@ -36946,7 +36952,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="656" spans="1:11">
+    <row r="656" spans="1:11" hidden="1">
       <c r="A656" t="s">
         <v>49</v>
       </c>
@@ -36978,7 +36984,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="657" spans="1:10">
+    <row r="657" spans="1:10" hidden="1">
       <c r="A657" t="s">
         <v>49</v>
       </c>
@@ -37007,7 +37013,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="658" spans="1:10">
+    <row r="658" spans="1:10" hidden="1">
       <c r="A658" t="s">
         <v>49</v>
       </c>
@@ -37036,7 +37042,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="659" spans="1:10">
+    <row r="659" spans="1:10" hidden="1">
       <c r="A659" t="s">
         <v>49</v>
       </c>
@@ -37065,7 +37071,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="660" spans="1:10">
+    <row r="660" spans="1:10" hidden="1">
       <c r="A660" t="s">
         <v>49</v>
       </c>
@@ -37094,7 +37100,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="661" spans="1:10">
+    <row r="661" spans="1:10" hidden="1">
       <c r="A661" t="s">
         <v>49</v>
       </c>
@@ -37123,7 +37129,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="662" spans="1:10">
+    <row r="662" spans="1:10" hidden="1">
       <c r="A662" t="s">
         <v>49</v>
       </c>
@@ -37152,7 +37158,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="663" spans="1:10">
+    <row r="663" spans="1:10" hidden="1">
       <c r="A663" t="s">
         <v>49</v>
       </c>
@@ -37181,7 +37187,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="664" spans="1:10">
+    <row r="664" spans="1:10" hidden="1">
       <c r="A664" t="s">
         <v>49</v>
       </c>
@@ -37210,7 +37216,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="665" spans="1:10">
+    <row r="665" spans="1:10" hidden="1">
       <c r="A665" t="s">
         <v>49</v>
       </c>
@@ -37239,7 +37245,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="666" spans="1:10">
+    <row r="666" spans="1:10" hidden="1">
       <c r="A666" t="s">
         <v>49</v>
       </c>
@@ -37268,7 +37274,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="667" spans="1:10">
+    <row r="667" spans="1:10" hidden="1">
       <c r="A667" t="s">
         <v>49</v>
       </c>
@@ -37297,7 +37303,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="668" spans="1:10">
+    <row r="668" spans="1:10" hidden="1">
       <c r="A668" t="s">
         <v>49</v>
       </c>
@@ -37326,7 +37332,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="669" spans="1:10">
+    <row r="669" spans="1:10" hidden="1">
       <c r="A669" t="s">
         <v>49</v>
       </c>
@@ -37355,7 +37361,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="670" spans="1:10">
+    <row r="670" spans="1:10" hidden="1">
       <c r="A670" t="s">
         <v>49</v>
       </c>
@@ -37384,7 +37390,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="671" spans="1:10">
+    <row r="671" spans="1:10" hidden="1">
       <c r="A671" t="s">
         <v>49</v>
       </c>
@@ -37416,7 +37422,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="672" spans="1:10">
+    <row r="672" spans="1:10" hidden="1">
       <c r="A672" t="s">
         <v>49</v>
       </c>
@@ -37448,7 +37454,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="673" spans="1:10">
+    <row r="673" spans="1:10" hidden="1">
       <c r="A673" t="s">
         <v>49</v>
       </c>
@@ -37480,7 +37486,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="674" spans="1:10">
+    <row r="674" spans="1:10" hidden="1">
       <c r="A674" t="s">
         <v>49</v>
       </c>
@@ -37509,7 +37515,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="675" spans="1:10">
+    <row r="675" spans="1:10" hidden="1">
       <c r="A675" t="s">
         <v>49</v>
       </c>
@@ -37538,7 +37544,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="676" spans="1:10">
+    <row r="676" spans="1:10" hidden="1">
       <c r="A676" t="s">
         <v>49</v>
       </c>
@@ -37567,7 +37573,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="677" spans="1:10">
+    <row r="677" spans="1:10" hidden="1">
       <c r="A677" t="s">
         <v>49</v>
       </c>
@@ -37596,7 +37602,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="678" spans="1:10">
+    <row r="678" spans="1:10" hidden="1">
       <c r="A678" t="s">
         <v>49</v>
       </c>
@@ -37625,7 +37631,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="679" spans="1:10">
+    <row r="679" spans="1:10" hidden="1">
       <c r="A679" t="s">
         <v>49</v>
       </c>
@@ -37654,7 +37660,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="680" spans="1:10">
+    <row r="680" spans="1:10" hidden="1">
       <c r="A680" t="s">
         <v>49</v>
       </c>
@@ -37683,7 +37689,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="681" spans="1:10">
+    <row r="681" spans="1:10" hidden="1">
       <c r="A681" t="s">
         <v>49</v>
       </c>
@@ -37712,7 +37718,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="682" spans="1:10">
+    <row r="682" spans="1:10" hidden="1">
       <c r="A682" t="s">
         <v>49</v>
       </c>
@@ -37744,7 +37750,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="683" spans="1:10">
+    <row r="683" spans="1:10" hidden="1">
       <c r="A683" t="s">
         <v>979</v>
       </c>
@@ -37773,7 +37779,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="684" spans="1:10">
+    <row r="684" spans="1:10" hidden="1">
       <c r="A684" t="s">
         <v>979</v>
       </c>
@@ -37802,7 +37808,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="685" spans="1:10">
+    <row r="685" spans="1:10" hidden="1">
       <c r="A685" t="s">
         <v>981</v>
       </c>
@@ -37831,7 +37837,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="686" spans="1:10">
+    <row r="686" spans="1:10" hidden="1">
       <c r="A686" t="s">
         <v>981</v>
       </c>
@@ -37860,7 +37866,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="687" spans="1:10">
+    <row r="687" spans="1:10" hidden="1">
       <c r="A687" t="s">
         <v>981</v>
       </c>
@@ -37889,7 +37895,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="688" spans="1:10">
+    <row r="688" spans="1:10" hidden="1">
       <c r="A688" t="s">
         <v>981</v>
       </c>
@@ -37915,7 +37921,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="689" spans="1:11">
+    <row r="689" spans="1:11" hidden="1">
       <c r="A689" t="s">
         <v>983</v>
       </c>
@@ -37947,7 +37953,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="690" spans="1:11">
+    <row r="690" spans="1:11" hidden="1">
       <c r="A690" t="s">
         <v>986</v>
       </c>
@@ -37979,7 +37985,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="691" spans="1:11">
+    <row r="691" spans="1:11" hidden="1">
       <c r="A691" t="s">
         <v>988</v>
       </c>
@@ -38011,7 +38017,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="692" spans="1:11">
+    <row r="692" spans="1:11" hidden="1">
       <c r="A692" t="s">
         <v>989</v>
       </c>
@@ -38043,7 +38049,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="693" spans="1:11">
+    <row r="693" spans="1:11" hidden="1">
       <c r="A693" t="s">
         <v>990</v>
       </c>
@@ -38075,7 +38081,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="694" spans="1:11">
+    <row r="694" spans="1:11" hidden="1">
       <c r="A694" t="s">
         <v>992</v>
       </c>
@@ -38104,7 +38110,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="695" spans="1:11">
+    <row r="695" spans="1:11" hidden="1">
       <c r="A695" t="s">
         <v>993</v>
       </c>
@@ -38136,7 +38142,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="696" spans="1:11">
+    <row r="696" spans="1:11" hidden="1">
       <c r="A696" t="s">
         <v>993</v>
       </c>
@@ -38168,7 +38174,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="697" spans="1:11">
+    <row r="697" spans="1:11" hidden="1">
       <c r="A697" t="s">
         <v>993</v>
       </c>
@@ -38200,7 +38206,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="698" spans="1:11">
+    <row r="698" spans="1:11" hidden="1">
       <c r="A698" t="s">
         <v>993</v>
       </c>
@@ -38232,7 +38238,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="699" spans="1:11">
+    <row r="699" spans="1:11" hidden="1">
       <c r="A699" t="s">
         <v>993</v>
       </c>
@@ -38264,7 +38270,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="700" spans="1:11">
+    <row r="700" spans="1:11" hidden="1">
       <c r="A700" t="s">
         <v>995</v>
       </c>
@@ -38293,7 +38299,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="701" spans="1:11">
+    <row r="701" spans="1:11" hidden="1">
       <c r="A701" t="s">
         <v>996</v>
       </c>
@@ -38322,7 +38328,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="702" spans="1:11">
+    <row r="702" spans="1:11" hidden="1">
       <c r="A702" t="s">
         <v>997</v>
       </c>
@@ -38351,7 +38357,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="703" spans="1:11">
+    <row r="703" spans="1:11" hidden="1">
       <c r="A703" t="s">
         <v>999</v>
       </c>
@@ -38380,7 +38386,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="704" spans="1:11">
+    <row r="704" spans="1:11" hidden="1">
       <c r="A704" t="s">
         <v>1001</v>
       </c>
@@ -38409,7 +38415,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="705" spans="1:11">
+    <row r="705" spans="1:11" hidden="1">
       <c r="A705" t="s">
         <v>1002</v>
       </c>
@@ -38438,7 +38444,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="706" spans="1:11">
+    <row r="706" spans="1:11" hidden="1">
       <c r="A706" t="s">
         <v>1003</v>
       </c>
@@ -38467,7 +38473,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="707" spans="1:11">
+    <row r="707" spans="1:11" hidden="1">
       <c r="A707" t="s">
         <v>1005</v>
       </c>
@@ -38496,7 +38502,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="708" spans="1:11">
+    <row r="708" spans="1:11" hidden="1">
       <c r="A708" t="s">
         <v>1005</v>
       </c>
@@ -38525,7 +38531,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="709" spans="1:11">
+    <row r="709" spans="1:11" hidden="1">
       <c r="A709" t="s">
         <v>1006</v>
       </c>
@@ -38554,7 +38560,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="710" spans="1:11">
+    <row r="710" spans="1:11" hidden="1">
       <c r="A710" t="s">
         <v>1008</v>
       </c>
@@ -38586,7 +38592,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="711" spans="1:11">
+    <row r="711" spans="1:11" hidden="1">
       <c r="A711" t="s">
         <v>3077</v>
       </c>
@@ -38618,7 +38624,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="712" spans="1:11">
+    <row r="712" spans="1:11" hidden="1">
       <c r="A712" t="s">
         <v>1011</v>
       </c>
@@ -38647,7 +38653,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="713" spans="1:11">
+    <row r="713" spans="1:11" hidden="1">
       <c r="A713" t="s">
         <v>1013</v>
       </c>
@@ -45938,8 +45944,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J1641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data/LCL Pricing Navexel2 2.xlsx
+++ b/Data/LCL Pricing Navexel2 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Navexcel\LCL Pricing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B25DE7C-7F33-4C18-99C3-C4AC4FC739EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B0AF6F-9093-49E5-809B-71D6E2D7C206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83FA37E5-C1F9-49A3-A48E-5FC3B7FA6C2F}"/>
   </bookViews>
@@ -10828,8 +10828,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
